--- a/data/hotels_by_city/Houston/Houston_shard_245.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_245.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107908-Reviews-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-Westchase.h77642.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1339 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r560110325-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107908</t>
+  </si>
+  <si>
+    <t>560110325</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Very new property</t>
+  </si>
+  <si>
+    <t>This was my second Fairfield inn and it was better than the last one. It looks very new and clean. The free breakfast buffer is relatively good, but nothing fancy. Very close to highway traffic. It is a good option for your with family or friends if your business in Houston is not far away from it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Mark B, General Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>This was my second Fairfield inn and it was better than the last one. It looks very new and clean. The free breakfast buffer is relatively good, but nothing fancy. Very close to highway traffic. It is a good option for your with family or friends if your business in Houston is not far away from it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r556991463-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556991463</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Good location near the Beltway 8 and Westheimer. Quick Check in/Out.The room had a musty/damp smell. Wifi issues during my stay - kinda slow and spotty.Breakfast buffet had limited selection. Staff/Service was just OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Mark B, General Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Good location near the Beltway 8 and Westheimer. Quick Check in/Out.The room had a musty/damp smell. Wifi issues during my stay - kinda slow and spotty.Breakfast buffet had limited selection. Staff/Service was just OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r533009031-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533009031</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of the good reviews. After staying there for 3 days, there are few things about this hotel. The elevator had a foul odor in it for the whole 3 days.  The beds were dated and had a indentation in the middle of the bed. After 2 nights sleep on the bed, my bad back began to act up with soreness and tenderness. I was there in mid October and had lots of families with kids were there.  Also, I am a Elite member and used the app to requested some toiletries such as toothbrush and shavers. They were never to be seen in the room after check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of the good reviews. After staying there for 3 days, there are few things about this hotel. The elevator had a foul odor in it for the whole 3 days.  The beds were dated and had a indentation in the middle of the bed. After 2 nights sleep on the bed, my bad back began to act up with soreness and tenderness. I was there in mid October and had lots of families with kids were there.  Also, I am a Elite member and used the app to requested some toiletries such as toothbrush and shavers. They were never to be seen in the room after check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r523586856-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523586856</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Great staff.....Jacob and David at check in and Sam and Gilbert during reservations. Everyone we dealt with at this hotel were on top of their game. Not usually impressed with hotel staff. The rooms were clean. Only thing I saw that need attention was the vent in the bathroom. Very dusty. The lady who served and tended to the breakfast was also pleasant to deal with. She was on her game! My husband and I stayed here to help some friends with their flooded out home.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Great staff.....Jacob and David at check in and Sam and Gilbert during reservations. Everyone we dealt with at this hotel were on top of their game. Not usually impressed with hotel staff. The rooms were clean. Only thing I saw that need attention was the vent in the bathroom. Very dusty. The lady who served and tended to the breakfast was also pleasant to deal with. She was on her game! My husband and I stayed here to help some friends with their flooded out home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r516682761-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516682761</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>The Price is Right</t>
+  </si>
+  <si>
+    <t>I selected this hotel for price + location. I was not disappointed. David at the front desk made the experience even better. Room key didn't work and at first I was annoyed, but David made several new keys and thankfully one worked. The room was comfortable and note the A/C unit is one of those floor units by the window. Personally, I like those b/c the constant hum helps me sleep. If you like the room perfectly quiet, this is not the hotel for you. Room had a microwave and small fridge, too. The free breakfast was awesome -- waffles, scrambled eggs, sausage patties, plus all the expected breads, muffins, cereal, yogurt &amp; beverages. The indoor pool was nice with plenty of towels. Overall, a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>I selected this hotel for price + location. I was not disappointed. David at the front desk made the experience even better. Room key didn't work and at first I was annoyed, but David made several new keys and thankfully one worked. The room was comfortable and note the A/C unit is one of those floor units by the window. Personally, I like those b/c the constant hum helps me sleep. If you like the room perfectly quiet, this is not the hotel for you. Room had a microwave and small fridge, too. The free breakfast was awesome -- waffles, scrambled eggs, sausage patties, plus all the expected breads, muffins, cereal, yogurt &amp; beverages. The indoor pool was nice with plenty of towels. Overall, a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r516073340-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516073340</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Let the road trip begin!</t>
+  </si>
+  <si>
+    <t>Very friendly staff. Great customer service and check-in by Jasmine.  Appreciated the overnight security as we had a u-haul trailer. Made us feel safe. Breakfast was a cut above other Fairfield's. indoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very friendly staff. Great customer service and check-in by Jasmine.  Appreciated the overnight security as we had a u-haul trailer. Made us feel safe. Breakfast was a cut above other Fairfield's. indoor pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r493092984-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493092984</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent Front Desk Staff</t>
+  </si>
+  <si>
+    <t>I lost my car and house key ring and was going crazy looking everywhere. The front desk staff members, Jacob and Jazmine, were excellent in calming me down, assuring me we would find the keys and went about locating the keys. They maintained a wonderful disposition throughout the ordeal which helped me to feel better. I can gladly say the key ring was found and a disaster averted! Thank you again Jacob and Jazmine!!! Great people really do make a difference!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I lost my car and house key ring and was going crazy looking everywhere. The front desk staff members, Jacob and Jazmine, were excellent in calming me down, assuring me we would find the keys and went about locating the keys. They maintained a wonderful disposition throughout the ordeal which helped me to feel better. I can gladly say the key ring was found and a disaster averted! Thank you again Jacob and Jazmine!!! Great people really do make a difference!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r489742711-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489742711</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spur of the moment </t>
+  </si>
+  <si>
+    <t>Today was a spur of the moment visit to see family. We traveled from Germany and Alaska to spend time with our Grandmother. Our host(best greeter on the world) Jacob immediately greeted us upon entry. While he checked us in, he presented us with complimentary bottles of water. He even made egg pun jokes along with us while we waited. Once we settled into our room we quickly realized that we needed additional bedding for the sleeper sofa. With a swiftness Jacob responded (in less than five minutes ) to our needs. Jacobs responsive manner and politeness has completely made this stay extra enjoyable!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Today was a spur of the moment visit to see family. We traveled from Germany and Alaska to spend time with our Grandmother. Our host(best greeter on the world) Jacob immediately greeted us upon entry. While he checked us in, he presented us with complimentary bottles of water. He even made egg pun jokes along with us while we waited. Once we settled into our room we quickly realized that we needed additional bedding for the sleeper sofa. With a swiftness Jacob responded (in less than five minutes ) to our needs. Jacobs responsive manner and politeness has completely made this stay extra enjoyable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r487153077-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487153077</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Great attentive staff</t>
+  </si>
+  <si>
+    <t>2 seniors from Belize , lost on the many roads at nite trying to reach the hotel.Frustrated and tired. Stopped at gas stations, other near by hotels to ask fir directions.No one knew of the place or how to get to it?So tried to call hotel directly only yo get and automatic answering machine ?Found it rested very well in a clean comfy bed.From then on our trip was super!Sam and a Linda are a great asset to Fairfield at the front desk so helpful.Will stay again if back in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>2 seniors from Belize , lost on the many roads at nite trying to reach the hotel.Frustrated and tired. Stopped at gas stations, other near by hotels to ask fir directions.No one knew of the place or how to get to it?So tried to call hotel directly only yo get and automatic answering machine ?Found it rested very well in a clean comfy bed.From then on our trip was super!Sam and a Linda are a great asset to Fairfield at the front desk so helpful.Will stay again if back in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r475665978-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475665978</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>One night stay for business. Hotel was a +35 minute drive from George Bush Airport without traffic, took almost an hour to get back to airport at 4PM on a Wednesday.There was nothing unique about this hotel - which is not a bad comment. I mean it to indicate that you get what you come to expect from Fairfield Inn. Nice, friendly staff. Clean rooms. Basic gym with three cardio machines and free weights. Breakfast was okay. Plenty of places to eat nearby. Get a recommendation from the front desk. We did not. We ended up at a local Sports Bar that I could not leave quick enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>One night stay for business. Hotel was a +35 minute drive from George Bush Airport without traffic, took almost an hour to get back to airport at 4PM on a Wednesday.There was nothing unique about this hotel - which is not a bad comment. I mean it to indicate that you get what you come to expect from Fairfield Inn. Nice, friendly staff. Clean rooms. Basic gym with three cardio machines and free weights. Breakfast was okay. Plenty of places to eat nearby. Get a recommendation from the front desk. We did not. We ended up at a local Sports Bar that I could not leave quick enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r470740340-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470740340</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Wonderful, welcoming staff!!!</t>
+  </si>
+  <si>
+    <t>My fiance and I just had a well deserved 3 day wknd and while in Houston we stayed here. I can say that I wasn't disappointed in a thing! From the moment we checked in to the moment we checked out the staff was always smiling, welcoming and very helpful. Sam was the young man that checked us in and he asked if we had a preference on which floor we would like to stay. I simply told him a quiet floor, no children running the hallways and with few people as possible around us because this was a long over due wknd. He placed us on the 3rd floor which turned out to be amazingly calm and quiet!
+We got to our room and found a clean, well kept room with just the right amount of space for the 2 of us. The king size bed was firm with just the right amount of cushion. The bathroom looked like it had recently been remodeled. The hallways were well kept and the pool/hottub area was clean and well stocked with towels. (The only hiccup was the button you had to hold down in order to get the hot tub to kick on).
+Josh called us later Friday afternoon to make sure there wasn't anything we needed or anything that needed to be changed, thankfully, everything was wonderful. Linda was the manager on duty and she had come in to drop...My fiance and I just had a well deserved 3 day wknd and while in Houston we stayed here. I can say that I wasn't disappointed in a thing! From the moment we checked in to the moment we checked out the staff was always smiling, welcoming and very helpful. Sam was the young man that checked us in and he asked if we had a preference on which floor we would like to stay. I simply told him a quiet floor, no children running the hallways and with few people as possible around us because this was a long over due wknd. He placed us on the 3rd floor which turned out to be amazingly calm and quiet!We got to our room and found a clean, well kept room with just the right amount of space for the 2 of us. The king size bed was firm with just the right amount of cushion. The bathroom looked like it had recently been remodeled. The hallways were well kept and the pool/hottub area was clean and well stocked with towels. (The only hiccup was the button you had to hold down in order to get the hot tub to kick on).Josh called us later Friday afternoon to make sure there wasn't anything we needed or anything that needed to be changed, thankfully, everything was wonderful. Linda was the manager on duty and she had come in to drop off fresh groceries for Saturday morning breakfast and upon checking in she also gave us a "Welcome bag" with bottle of water, snack mix and mints. I felt that was a nice little touch!Our morning breakfasts were wonderful. the stereo typical hot breakfast-toast, oatmeal, cereal, bagels, waffle maker (only 1 waffle iron so there was a line waiting to use it), scrambled eggs and sausage, etc. The nice thing though was the way it was all set up and the toppings that were laid out for the oatmeal were universal for cereal and my favorite kind of yogurt-Chobani! Each time we left the hotel and returned we were greeted with hellos and good byes from each staff member we came in contact with. The parking lot was clean and the lawn maintenance was well done and cared for. Although we were close to the Sam Houston Freeway and Tollway we couldn't hear the traffic. I will definitely stay here again with all my future trips to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>My fiance and I just had a well deserved 3 day wknd and while in Houston we stayed here. I can say that I wasn't disappointed in a thing! From the moment we checked in to the moment we checked out the staff was always smiling, welcoming and very helpful. Sam was the young man that checked us in and he asked if we had a preference on which floor we would like to stay. I simply told him a quiet floor, no children running the hallways and with few people as possible around us because this was a long over due wknd. He placed us on the 3rd floor which turned out to be amazingly calm and quiet!
+We got to our room and found a clean, well kept room with just the right amount of space for the 2 of us. The king size bed was firm with just the right amount of cushion. The bathroom looked like it had recently been remodeled. The hallways were well kept and the pool/hottub area was clean and well stocked with towels. (The only hiccup was the button you had to hold down in order to get the hot tub to kick on).
+Josh called us later Friday afternoon to make sure there wasn't anything we needed or anything that needed to be changed, thankfully, everything was wonderful. Linda was the manager on duty and she had come in to drop...My fiance and I just had a well deserved 3 day wknd and while in Houston we stayed here. I can say that I wasn't disappointed in a thing! From the moment we checked in to the moment we checked out the staff was always smiling, welcoming and very helpful. Sam was the young man that checked us in and he asked if we had a preference on which floor we would like to stay. I simply told him a quiet floor, no children running the hallways and with few people as possible around us because this was a long over due wknd. He placed us on the 3rd floor which turned out to be amazingly calm and quiet!We got to our room and found a clean, well kept room with just the right amount of space for the 2 of us. The king size bed was firm with just the right amount of cushion. The bathroom looked like it had recently been remodeled. The hallways were well kept and the pool/hottub area was clean and well stocked with towels. (The only hiccup was the button you had to hold down in order to get the hot tub to kick on).Josh called us later Friday afternoon to make sure there wasn't anything we needed or anything that needed to be changed, thankfully, everything was wonderful. Linda was the manager on duty and she had come in to drop off fresh groceries for Saturday morning breakfast and upon checking in she also gave us a "Welcome bag" with bottle of water, snack mix and mints. I felt that was a nice little touch!Our morning breakfasts were wonderful. the stereo typical hot breakfast-toast, oatmeal, cereal, bagels, waffle maker (only 1 waffle iron so there was a line waiting to use it), scrambled eggs and sausage, etc. The nice thing though was the way it was all set up and the toppings that were laid out for the oatmeal were universal for cereal and my favorite kind of yogurt-Chobani! Each time we left the hotel and returned we were greeted with hellos and good byes from each staff member we came in contact with. The parking lot was clean and the lawn maintenance was well done and cared for. Although we were close to the Sam Houston Freeway and Tollway we couldn't hear the traffic. I will definitely stay here again with all my future trips to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r466538185-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466538185</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>I recently spent 49 nights at this property. Each morning I was greeted by the friendly woman who prepares the breakfast. The manager would also welcome me on most mornings. The room was always cleaned wonderfully and I was welcomed back to the hotel everyday by the warm personalities that work the front desk. Most days they have fresh baked cookies in the lobby in the late afternoon. I will be back shortly for another extended stay and look forward to seeing everyone again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>I recently spent 49 nights at this property. Each morning I was greeted by the friendly woman who prepares the breakfast. The manager would also welcome me on most mornings. The room was always cleaned wonderfully and I was welcomed back to the hotel everyday by the warm personalities that work the front desk. Most days they have fresh baked cookies in the lobby in the late afternoon. I will be back shortly for another extended stay and look forward to seeing everyone again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r449389652-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449389652</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Like NEW - Spotless! Delicious, fresh breakfast</t>
+  </si>
+  <si>
+    <t>We loved this place. Everything - the room, the hall, the lobby, the dining area - was spotless. The only thing negative was that there was only one ice machine and it was out of ice! The breakfast was delicious. Bacon, fresh coffee (!), eggs, waffles, fruit, oakmeal, and more!! very good... housekeeping kept a close eye on cleanliness at all times.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>We loved this place. Everything - the room, the hall, the lobby, the dining area - was spotless. The only thing negative was that there was only one ice machine and it was out of ice! The breakfast was delicious. Bacon, fresh coffee (!), eggs, waffles, fruit, oakmeal, and more!! very good... housekeeping kept a close eye on cleanliness at all times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r445115322-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445115322</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Would recommend staying here. Stayed here Sunday-Friday for business. Gym is small but will do for the week. Breakfast was great. Rooms were large enough. Near restaurants. Has a snack/convenience store in case you're hungryCons... not a big deal, just recommendations for the hotel mostly-shower curtain only extends 1 inch into the tub making it quite annoying to use-a/c runs constantly. Does not switch off. Either turn it off to sleep or use earplugs if you're a light sleeper. -mini-fridge does not have a freezer compartment MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Would recommend staying here. Stayed here Sunday-Friday for business. Gym is small but will do for the week. Breakfast was great. Rooms were large enough. Near restaurants. Has a snack/convenience store in case you're hungryCons... not a big deal, just recommendations for the hotel mostly-shower curtain only extends 1 inch into the tub making it quite annoying to use-a/c runs constantly. Does not switch off. Either turn it off to sleep or use earplugs if you're a light sleeper. -mini-fridge does not have a freezer compartment More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r444051251-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444051251</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Wrong pricing</t>
+  </si>
+  <si>
+    <t>Got a room for disabled people so very much space. Bathroom clean, nice bed, iron in room. So far so good. Good service at reception. Aircon noisy, but windows can be opened and this is a quiet area and December temperature in Houston at night is ok. No food available after breakfast except vending machines, tried to order takeaway at 9pm from a list of brochures given from reception without luck. Breakfast on disposable plates and unhealthy alternatives. Excellent location for Phillips66 headquarters meeting, as it is next door. All in all ok, but not to that price, paid USD 164 one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Got a room for disabled people so very much space. Bathroom clean, nice bed, iron in room. So far so good. Good service at reception. Aircon noisy, but windows can be opened and this is a quiet area and December temperature in Houston at night is ok. No food available after breakfast except vending machines, tried to order takeaway at 9pm from a list of brochures given from reception without luck. Breakfast on disposable plates and unhealthy alternatives. Excellent location for Phillips66 headquarters meeting, as it is next door. All in all ok, but not to that price, paid USD 164 one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r380986694-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380986694</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Nice for the price.</t>
+  </si>
+  <si>
+    <t>It was quiet, clean, and nice for a very reasonable price.  Breakfast was really good,  especially since it was included in the price of the room.  We are from out of town, so it was convenient area, very close to our relatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>It was quiet, clean, and nice for a very reasonable price.  Breakfast was really good,  especially since it was included in the price of the room.  We are from out of town, so it was convenient area, very close to our relatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r380430987-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380430987</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Worth the money</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Fairfield Inn &amp; Suites for Memorial weekend and I have no complaints at all. The staff was very courteous and helpful. They were always ready to help. Breakfast was included which is a big plus. Rooms are spacious and clean. We were all attending the Tabanka festival so after 48 hours of dancing the jacuzzi was def a plus. I will definitely stay there again on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Fairfield Inn &amp; Suites for Memorial weekend and I have no complaints at all. The staff was very courteous and helpful. They were always ready to help. Breakfast was included which is a big plus. Rooms are spacious and clean. We were all attending the Tabanka festival so after 48 hours of dancing the jacuzzi was def a plus. I will definitely stay there again on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r377440876-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377440876</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Worth your money</t>
+  </si>
+  <si>
+    <t>We spent one night here on our way to Galveston Island. We specifically were looking for a hotel near Chinatown and Rice University. It is about half hour from IAH, 15 mins to Rice University, and depending on where in Chinatown you are going, you could be there in 5 minutes (without traffic of course). The service is very good, and you get good value for your money with their breakfast and central location. The room is pretty standard and clean. The bathroom is tiny. Breakfast is nice including waffle and a variety of cold cereal, fruits, oatmeal, danish and pastries, bread and bagels, eggs and meat (bacon, sausage, ham). Free wifi is standard nowadays.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We spent one night here on our way to Galveston Island. We specifically were looking for a hotel near Chinatown and Rice University. It is about half hour from IAH, 15 mins to Rice University, and depending on where in Chinatown you are going, you could be there in 5 minutes (without traffic of course). The service is very good, and you get good value for your money with their breakfast and central location. The room is pretty standard and clean. The bathroom is tiny. Breakfast is nice including waffle and a variety of cold cereal, fruits, oatmeal, danish and pastries, bread and bagels, eggs and meat (bacon, sausage, ham). Free wifi is standard nowadays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r365235535-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365235535</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay on a Girlfriend Getaway Trip</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night on Saturday, April 16th.  It was four ladies on a weekend shopping/dining trip.  If you're looking for luxury, this is not the place, however, the hotel is very neat and clean and very affordable – our room had two nice size beds (probably queen size) and nice linens, plus a small frig, microwave, and coffee maker in the room as well.  Additionally, it was centrally located to all the places that we were going.  All was well with the room and the front desk staff was courteous.  The only issue I had was with breakfast on Sunday morning.  There was a pan with the gravy for the biscuits in one section, and there was also a 2nd section in the pan that was empty, but there was a name tent in front of it stating “Breakfast Sausage”.  When we asked the breakfast attendant about it, she said “Well, we normally don’t serve meat on the weekends, but I did put some sausage out earlier.  It’s all gone now, and I won’t be putting any more.  But there’s meat in the gravy.”  What hotel serves breakfast, but does NOT serve breakfast meat on the weekend?  And if you’re not serving it, then please remove the name tent in front of the pan where the sausage would normally be.  Other than the breakfast issue, I would stay here again with no problem.bbMoreShow less</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night on Saturday, April 16th.  It was four ladies on a weekend shopping/dining trip.  If you're looking for luxury, this is not the place, however, the hotel is very neat and clean and very affordable – our room had two nice size beds (probably queen size) and nice linens, plus a small frig, microwave, and coffee maker in the room as well.  Additionally, it was centrally located to all the places that we were going.  All was well with the room and the front desk staff was courteous.  The only issue I had was with breakfast on Sunday morning.  There was a pan with the gravy for the biscuits in one section, and there was also a 2nd section in the pan that was empty, but there was a name tent in front of it stating “Breakfast Sausage”.  When we asked the breakfast attendant about it, she said “Well, we normally don’t serve meat on the weekends, but I did put some sausage out earlier.  It’s all gone now, and I won’t be putting any more.  But there’s meat in the gravy.”  What hotel serves breakfast, but does NOT serve breakfast meat on the weekend?  And if you’re not serving it, then please remove the name tent in front of the pan where the sausage would normally be.  Other than the breakfast issue, I would stay here again with no problem.bbMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r359299019-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359299019</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Nice find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband, 2 girls, and I visited the hotel Easter weekend. The staff were polite and helpful. Our room was nice except for the wet, musty smell that developed after our first night in the hotel. The indoor pool was a nice feature but the hot tub was less than hot and had a smell that resembled fish tank water. The hotel breakfast had lots of options which was great since we have a picky eater. Overall I would stay here agin if we were on that side of town. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r357194614-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357194614</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Long term work stay</t>
+  </si>
+  <si>
+    <t>Recently I had an extended stay at the Fairfield as part of a work trip. My room was fairly comfortable and the staff were very friendly and offered help at every instance. In terms of getting around I found that the location was great and having access to the Parkway and Westheimer Rd was very convenient. My only concern were the occasions were my room hadn't been serviced when I return from work however a quick conversation with the front desk soon had this corrected. All in all a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Recently I had an extended stay at the Fairfield as part of a work trip. My room was fairly comfortable and the staff were very friendly and offered help at every instance. In terms of getting around I found that the location was great and having access to the Parkway and Westheimer Rd was very convenient. My only concern were the occasions were my room hadn't been serviced when I return from work however a quick conversation with the front desk soon had this corrected. All in all a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r310722586-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310722586</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>One of the best free hot breakfast menu and clean hotel.</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a funeral  and the overall experience was very nice. I arrived on Friday and had my key waiting for me because I checked in the night before using  the Marriott App. I requested extra pillows, which was not available on Friday, but on Saturday they brought up some. Most of the staff were very pleasant. My best experience was the free hot breakfast bar.  This was one of the best I have had and the staff were constantly replenishing the  food items.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a funeral  and the overall experience was very nice. I arrived on Friday and had my key waiting for me because I checked in the night before using  the Marriott App. I requested extra pillows, which was not available on Friday, but on Saturday they brought up some. Most of the staff were very pleasant. My best experience was the free hot breakfast bar.  This was one of the best I have had and the staff were constantly replenishing the  food items.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r306253682-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306253682</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Elevator Issues</t>
+  </si>
+  <si>
+    <t>Great hotel, friendly staff, elevator not working. Of course, the elevator was supposed to be working the day of my departure. Stairs were working just fine. Really is a very friendly staff. Rooms were nice. Our corporate office is close by, so I will have more opportunities in the future to review with elevator and try the breakfast. Will definitely stay there again on future visits. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Great hotel, friendly staff, elevator not working. Of course, the elevator was supposed to be working the day of my departure. Stairs were working just fine. Really is a very friendly staff. Rooms were nice. Our corporate office is close by, so I will have more opportunities in the future to review with elevator and try the breakfast. Will definitely stay there again on future visits. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r289032686-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289032686</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Wonderful hotel! The staff were all very friendly. The room was clean and nice looking. Very comfortable room. Loved the indoor pool, we had it all to ourselves. I would definatly stay here again. The only downfall was the breakfast. It wasnt the best but alright if you're really hungry.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel! The staff were all very friendly. The room was clean and nice looking. Very comfortable room. Loved the indoor pool, we had it all to ourselves. I would definatly stay here again. The only downfall was the breakfast. It wasnt the best but alright if you're really hungry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r274820041-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274820041</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Forget the Houston heat, stay in a nice room, in a convenient area</t>
+  </si>
+  <si>
+    <t>Nice hotel, with a boutique feel.  Front desk/Concierge was very helpful, and checked me in quickly.  I travelled alone, and was given a nice/secure room...close to elevator, but far enough away from side exits.  Room was clean, cool, and well stocked with towels.  The bed and pillows were comfy cozy.  I had a great night sleep; it was nice and quiet, which rarely happens when I travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, with a boutique feel.  Front desk/Concierge was very helpful, and checked me in quickly.  I travelled alone, and was given a nice/secure room...close to elevator, but far enough away from side exits.  Room was clean, cool, and well stocked with towels.  The bed and pillows were comfy cozy.  I had a great night sleep; it was nice and quiet, which rarely happens when I travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r267676471-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267676471</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Good Service</t>
+  </si>
+  <si>
+    <t>Very typical Fairfield Inn hotel. Hotel is clean and well kept. There was a mixup with the cleaning of my room one day, a computer glitch of sorts, but the hotel quickly rectified the situation and went above and beyond by leaving a Duncan Donuts gift card for me. Very nice touch. I am on the road half the year for work and realize that mistakes happen, but to go above and beyond as they did shows the character of the people working at this particular hotel.I will definitely stay there again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r261710067-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261710067</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I usually stay at a different property when I need to be in certain parts of Houston. Due to the Houston Rodeo, everything was sold out but I stumbled on to this property. Good location, right off Beltway 8 and plenty of shopping and restaurants. Check in was quick and the front office staff were very friendly and engaging. The room was clean and well appointed. Everything worked and the beds were comfortable. the windows open in the rooms so it was nice to let some fresh air in. I woke up too late to get breakfast but did check out the fitness center and the indoor pool. Both accessible once inside the hotel. Good location and good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>I usually stay at a different property when I need to be in certain parts of Houston. Due to the Houston Rodeo, everything was sold out but I stumbled on to this property. Good location, right off Beltway 8 and plenty of shopping and restaurants. Check in was quick and the front office staff were very friendly and engaging. The room was clean and well appointed. Everything worked and the beds were comfortable. the windows open in the rooms so it was nice to let some fresh air in. I woke up too late to get breakfast but did check out the fitness center and the indoor pool. Both accessible once inside the hotel. Good location and good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r257492969-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257492969</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Excellency and and great hospitality at its best!</t>
+  </si>
+  <si>
+    <t>Everyone was very very nice and friendly, it was our first trip to Houston and they were great. We didn't get to the hotel to check in until a little after 9pm and Karen and David were very welcoming, although everyone we came in contact with was very nice. They offered a list of restaurants in the area. We also thought we were having trouble with our key the next morning and Karen came up to our room to assist us and come to find out it was user error not the key lol. The only thing I would say would be that they ran out of bacon on Saturday morning but in their defense we did come don't to breakfast at about 9:45 and it ended at 10. That was once again on us. We were there earlier the next morning and it was good. Nice to have an indoor pool and hot breakfast rather than just regular boring continental which is the why we chose it and we will definitely be coming back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Everyone was very very nice and friendly, it was our first trip to Houston and they were great. We didn't get to the hotel to check in until a little after 9pm and Karen and David were very welcoming, although everyone we came in contact with was very nice. They offered a list of restaurants in the area. We also thought we were having trouble with our key the next morning and Karen came up to our room to assist us and come to find out it was user error not the key lol. The only thing I would say would be that they ran out of bacon on Saturday morning but in their defense we did come don't to breakfast at about 9:45 and it ended at 10. That was once again on us. We were there earlier the next morning and it was good. Nice to have an indoor pool and hot breakfast rather than just regular boring continental which is the why we chose it and we will definitely be coming back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r254263687-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254263687</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We spent the weekend at this hotel and we loved it! The rooms are spacious and clean, the staff was VERY friendly and helpful, and the amenities were spot on. A month ago we stayed at a high-class hotel minutes from The Galleria, although lovely, our experience at Fairfield Inn was more enjoyable.Also loved the endless, complimentary coffee in lobby all-day long.If in Houston again will stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>We spent the weekend at this hotel and we loved it! The rooms are spacious and clean, the staff was VERY friendly and helpful, and the amenities were spot on. A month ago we stayed at a high-class hotel minutes from The Galleria, although lovely, our experience at Fairfield Inn was more enjoyable.Also loved the endless, complimentary coffee in lobby all-day long.If in Houston again will stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r252975070-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252975070</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Lovely stay!</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on business recently. The hotel is nice and clean and the rooms are comfortable with modern decor. The staff was friendly and I enjoyed the Texas shaped waffles for breakfast. There is an indoor pool and hot tub. If you have car, there are many restaurant choices in the area. If not, you can walk to a couple but it is not a pedestrian friendly area. The hotel will let you know which places deliver. I will stay here again on my next business visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on business recently. The hotel is nice and clean and the rooms are comfortable with modern decor. The staff was friendly and I enjoyed the Texas shaped waffles for breakfast. There is an indoor pool and hot tub. If you have car, there are many restaurant choices in the area. If not, you can walk to a couple but it is not a pedestrian friendly area. The hotel will let you know which places deliver. I will stay here again on my next business visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r251658638-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251658638</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Beyond the Expected</t>
+  </si>
+  <si>
+    <t>We flew to Houston late at night on January 13 for a funeral.  Although we had directions from George Bush Airport we got very lost.Upon calling the Fairfield Inn and explaining our dilemma, the very gracious and helpful Terrell, at the front desk, said she would talk us in.  It was after midnight by now - close to 12:30AM.  We were doing really well until we hit some unexpected construction and got turned around. "No problem." said Terrell.  She told us to stop at the first hotel that we came to and hand the phone to that night reception person.  We stopped at the Hampton Inn where LaTanya did not bat an eye.  She explained the way to go, entered directions on my brand new iPhone, and offered me water and fruit.        We arrived at our hotel a few minutes later and were greeted with a great big smile and some cool water.     We stayed at the Fairfield Inn for the next 5 days and found every single person who worked there to be friendly and the epitome of good service.  In fact, we received better service  there than we have at a few more expensive places.       Because of our positive experience we give LaTanya and Terrell 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>We flew to Houston late at night on January 13 for a funeral.  Although we had directions from George Bush Airport we got very lost.Upon calling the Fairfield Inn and explaining our dilemma, the very gracious and helpful Terrell, at the front desk, said she would talk us in.  It was after midnight by now - close to 12:30AM.  We were doing really well until we hit some unexpected construction and got turned around. "No problem." said Terrell.  She told us to stop at the first hotel that we came to and hand the phone to that night reception person.  We stopped at the Hampton Inn where LaTanya did not bat an eye.  She explained the way to go, entered directions on my brand new iPhone, and offered me water and fruit.        We arrived at our hotel a few minutes later and were greeted with a great big smile and some cool water.     We stayed at the Fairfield Inn for the next 5 days and found every single person who worked there to be friendly and the epitome of good service.  In fact, we received better service  there than we have at a few more expensive places.       Because of our positive experience we give LaTanya and Terrell 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r241955560-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241955560</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great accommodation, Everyone I met at the Front Desk was very polite and helpful. Breakfast was well laid out and had quite a few options which is very nice. The rooms were great, well cleaned and didn't feel dirty in any way. I was very comfortable staying here.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r239957350-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239957350</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Great select service hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in the hotel on multiple weekly stays with absolutely consistent great experiences.  The staff, from the front desk to the breakfast staff to housekeeping go out of their way to be pleasant and accommodating.  The rooms are always clean and well made up and the coffee is always stocked.  (The coffee may sound like a small thing, but I want my cup immediately when I get up.  And I can't tell you how many hotels I have stayed in, including premium hotels, that manage to mess this up at least once out of a 3 or 4 night stay).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r233191964-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233191964</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Perfect Choice</t>
+  </si>
+  <si>
+    <t>Chose this hotel based on reviews in Tripadvisor. The staff at the front desk, maids, and the lady at the breakfast room  were excellent. The room size was good and very clean. Wi-Fi parking were complimentary. As we wanted to visit The Galleria and then head to San Antonio, the location is ideal. A less than 15mins car trip takes you to The Galleria and convenient to head west to SA. Lots of dining choices in the vicinity. Breakfast choices were more than enough and we like the presentaion and layout. Overall experience, very good</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r200410338-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200410338</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Excellent for business travel!</t>
+  </si>
+  <si>
+    <t>As a Platinum member I travel and stay with the Marriott brand, well, always. This is my second stay at this location and the staff, rooms and overall experience has been great.  I will stay here for all my Houston area business trips!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r194184287-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194184287</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel!!!</t>
+  </si>
+  <si>
+    <t>This hotel was wondeful! The room was very spacious with a nice size bathroom. It had a nice size computer desk. Karen from London was very nice and got us checked in. She was extremely helpful!The breakfast here was very good. They had eggs, biscuits and gravy, make your own waffles, cereals and yogurt. The guy who checked us out was also very nice. I would definitely recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was wondeful! The room was very spacious with a nice size bathroom. It had a nice size computer desk. Karen from London was very nice and got us checked in. She was extremely helpful!The breakfast here was very good. They had eggs, biscuits and gravy, make your own waffles, cereals and yogurt. The guy who checked us out was also very nice. I would definitely recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r192142497-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192142497</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Clean and good as expected from Marriott</t>
+  </si>
+  <si>
+    <t>Very clean and large room. Morning breakfast was good and they start quite early... So it's convenient for an early flight. There is no restaurant on site but there are many within a few minutes drive and a few within walking distance. Overall good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Very clean and large room. Morning breakfast was good and they start quite early... So it's convenient for an early flight. There is no restaurant on site but there are many within a few minutes drive and a few within walking distance. Overall good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r188056611-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188056611</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>A well-managed hotel at a great price</t>
+  </si>
+  <si>
+    <t>We did not expect such a good value when we booked two nights at Fairfield Westchase because it was not as highly ranked on TripAdvisor as some other Westchase hotels. But we were quite pleasantly surprised at the physical plant, the room, and the friendliness and helpfulness of the staff.
+Plus
+•	Great welcome and goodbye with easy check-in and check-out.
+•	Clean, well-kept room and facilities. Microwave for heating anything you might buy in the small store.
+•	Good selection of channels on TV
+•	Quiet. No neighbor noise, no outside noise
+•	Comfortable bed without heavy comforter, making it easy to sleep even if temperatures aren't sub-zero.
+•	Karen is a chatty and friendly employee with a British accent who makes everyone, including us, feel warm about Fairfield Inn because they like her so much. All the staff were great. 
+•	They let us check in early and check out two hours late.
+•	They followed up with a "thank you for staying" e-mail and a questionnaire to see how they could improve--always a sign that management cares.
+Minus
+•	Only one towel could be hung up after both our towels were used. Why haven't any couples mentioned to Fairfield Inn the need for more towel hooks?
+The breakfast is good for the modest room price. It includes fresh oranges, apples, and bananas.
+We feel Fairfield Inn will rise steadily in the TripAdvisor ranking for Westchase. Having stayed...We did not expect such a good value when we booked two nights at Fairfield Westchase because it was not as highly ranked on TripAdvisor as some other Westchase hotels. But we were quite pleasantly surprised at the physical plant, the room, and the friendliness and helpfulness of the staff.Plus•	Great welcome and goodbye with easy check-in and check-out.•	Clean, well-kept room and facilities. Microwave for heating anything you might buy in the small store.•	Good selection of channels on TV•	Quiet. No neighbor noise, no outside noise•	Comfortable bed without heavy comforter, making it easy to sleep even if temperatures aren't sub-zero.•	Karen is a chatty and friendly employee with a British accent who makes everyone, including us, feel warm about Fairfield Inn because they like her so much. All the staff were great. •	They let us check in early and check out two hours late.•	They followed up with a "thank you for staying" e-mail and a questionnaire to see how they could improve--always a sign that management cares.Minus•	Only one towel could be hung up after both our towels were used. Why haven't any couples mentioned to Fairfield Inn the need for more towel hooks?The breakfast is good for the modest room price. It includes fresh oranges, apples, and bananas.We feel Fairfield Inn will rise steadily in the TripAdvisor ranking for Westchase. Having stayed at one other hotel in Westchase, we consider Fairfield Inn the best hotel value in Westchase, and we recommend it very highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>We did not expect such a good value when we booked two nights at Fairfield Westchase because it was not as highly ranked on TripAdvisor as some other Westchase hotels. But we were quite pleasantly surprised at the physical plant, the room, and the friendliness and helpfulness of the staff.
+Plus
+•	Great welcome and goodbye with easy check-in and check-out.
+•	Clean, well-kept room and facilities. Microwave for heating anything you might buy in the small store.
+•	Good selection of channels on TV
+•	Quiet. No neighbor noise, no outside noise
+•	Comfortable bed without heavy comforter, making it easy to sleep even if temperatures aren't sub-zero.
+•	Karen is a chatty and friendly employee with a British accent who makes everyone, including us, feel warm about Fairfield Inn because they like her so much. All the staff were great. 
+•	They let us check in early and check out two hours late.
+•	They followed up with a "thank you for staying" e-mail and a questionnaire to see how they could improve--always a sign that management cares.
+Minus
+•	Only one towel could be hung up after both our towels were used. Why haven't any couples mentioned to Fairfield Inn the need for more towel hooks?
+The breakfast is good for the modest room price. It includes fresh oranges, apples, and bananas.
+We feel Fairfield Inn will rise steadily in the TripAdvisor ranking for Westchase. Having stayed...We did not expect such a good value when we booked two nights at Fairfield Westchase because it was not as highly ranked on TripAdvisor as some other Westchase hotels. But we were quite pleasantly surprised at the physical plant, the room, and the friendliness and helpfulness of the staff.Plus•	Great welcome and goodbye with easy check-in and check-out.•	Clean, well-kept room and facilities. Microwave for heating anything you might buy in the small store.•	Good selection of channels on TV•	Quiet. No neighbor noise, no outside noise•	Comfortable bed without heavy comforter, making it easy to sleep even if temperatures aren't sub-zero.•	Karen is a chatty and friendly employee with a British accent who makes everyone, including us, feel warm about Fairfield Inn because they like her so much. All the staff were great. •	They let us check in early and check out two hours late.•	They followed up with a "thank you for staying" e-mail and a questionnaire to see how they could improve--always a sign that management cares.Minus•	Only one towel could be hung up after both our towels were used. Why haven't any couples mentioned to Fairfield Inn the need for more towel hooks?The breakfast is good for the modest room price. It includes fresh oranges, apples, and bananas.We feel Fairfield Inn will rise steadily in the TripAdvisor ranking for Westchase. Having stayed at one other hotel in Westchase, we consider Fairfield Inn the best hotel value in Westchase, and we recommend it very highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r186788826-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186788826</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>Stayed here over the Thanksgiving holiday and was impressed with the level of service provided.  The rooms were very clean, beds very comfortable and rooms a nice size.  Breakfast was nice and staff went above and beyond to make sure you were comfortable.  Wish there were more wall electrical outlets in the room.  Most outlets were on the lamps and the desk.Great location; near various types of restaurants, retail shops and businesses.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded December 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here over the Thanksgiving holiday and was impressed with the level of service provided.  The rooms were very clean, beds very comfortable and rooms a nice size.  Breakfast was nice and staff went above and beyond to make sure you were comfortable.  Wish there were more wall electrical outlets in the room.  Most outlets were on the lamps and the desk.Great location; near various types of restaurants, retail shops and businesses.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r180109533-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180109533</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>I stayed here while on a business trip. While it isn't a Courtyard Marriott, it was a good hotel. The staff were really nice and the hotel was up to date. They offered complimentary breakfast that had eggs, a meat, waffles, other bakery item, and fruit. The hotel also offered complimentary bottles of water at the front desk which is a change from having them in the room for sale. The walls and floors are thin would be my biggest complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded October 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here while on a business trip. While it isn't a Courtyard Marriott, it was a good hotel. The staff were really nice and the hotel was up to date. They offered complimentary breakfast that had eggs, a meat, waffles, other bakery item, and fruit. The hotel also offered complimentary bottles of water at the front desk which is a change from having them in the room for sale. The walls and floors are thin would be my biggest complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r177422109-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177422109</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel &amp; Price</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn has had the full remodel. Front desk folks are friendly and attentive with water and cookies when you arrive. I also liked the price as hotels in Houston can get a little pricey. $127.53 per night if I prepaid in advance. The hotel is clean and well maintained. The rooms are pretty standard but the beds are really very comfortable. New flat screens. Mini fridge for cold water in the morning. Bonus it doesn't hum at all. Rooms have been remodeled and the showers have great pressure with a Speakman shower head. The little blue bags with soap are a little cheap so I bring my own. Last but not least it is Houston and it's on the beltway so I appreciate the have a Barney Fife roaming the grounds at night to make my car safer. I have to add I feel very safe in the area. Great restaurants all up and down Westheimer and a few exits away from the new Town and Country shopping areaMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn has had the full remodel. Front desk folks are friendly and attentive with water and cookies when you arrive. I also liked the price as hotels in Houston can get a little pricey. $127.53 per night if I prepaid in advance. The hotel is clean and well maintained. The rooms are pretty standard but the beds are really very comfortable. New flat screens. Mini fridge for cold water in the morning. Bonus it doesn't hum at all. Rooms have been remodeled and the showers have great pressure with a Speakman shower head. The little blue bags with soap are a little cheap so I bring my own. Last but not least it is Houston and it's on the beltway so I appreciate the have a Barney Fife roaming the grounds at night to make my car safer. I have to add I feel very safe in the area. Great restaurants all up and down Westheimer and a few exits away from the new Town and Country shopping areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r175592572-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175592572</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Basic and a nice value</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel many times since it is located near a family member's home. It is your basic hotel, but has recently been renovated to give it a fresh new look. There is a breakfast which looks enticing, but we usually go out elsewhere with our family so I can't give my opinion. The updated rooms added some lamps which each have two electrical outlets for ease in charging phones and computers. The bathroon is spacious with a large mirror, nice tub, and new tile floor. The bed is comfortable with an array of pillows to choose from. There is an indoor pool for those who want to avoid the sun. The rate is very moderate especially for senior citizens. I will continue to stay at this hotel on our family visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded September 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel many times since it is located near a family member's home. It is your basic hotel, but has recently been renovated to give it a fresh new look. There is a breakfast which looks enticing, but we usually go out elsewhere with our family so I can't give my opinion. The updated rooms added some lamps which each have two electrical outlets for ease in charging phones and computers. The bathroon is spacious with a large mirror, nice tub, and new tile floor. The bed is comfortable with an array of pillows to choose from. There is an indoor pool for those who want to avoid the sun. The rate is very moderate especially for senior citizens. I will continue to stay at this hotel on our family visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r166895977-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166895977</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn Westchase in Houston was fantastic. Very clean, looks new, and a very friendly staff. Greeted by "Raven" when we checked in, she was totally into friendly service and we aim to please. Ten minutes after we got to our room, she called us to check if the room was OK and if we needed anything. WOW....nice! Our stay was great, free breakfast was part of the deal. The location was perfect for our plans, close to any type of service.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r161999193-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161999193</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Just spent four nights at this hotel on business. It was a very good experience and I will be returning. All of the staff was very helpful,they had free wi-fi, the room had a mini-frig and microwave and breakfast was good  for what it was. The bed was a little lumpy but I slept well. All in all, a good value.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r161979907-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161979907</t>
+  </si>
+  <si>
+    <t>Fairfield Westchase successfully hits all KPIs</t>
+  </si>
+  <si>
+    <t>First impression: 
+Check-in was quick and friendly. Karen at the front desk was friendly, courteous, and informative. Renovations at the hotel appear to be complete so the entire hotel looks and feels new. 
+The room: Nicely renovated and clean. Comfortable beds and pillows. Lotsa power hook-ups beside the bed or at the desk, which is nice cos I could use and charge my laptop in bed easily. Bathroom was equipped with the usual amenities, and shower flow was great.
+Breakfast was a complimentary full hot breakfast. On the day I had it, they were serving sausages, flat eggs and boiled eggs but I overheard the lady working there say that they change the hot items daily. Other items include fruits, bread, yoghurt, juice, and cereal selections, as well as a waffle maker. Lady working in the bedroom room was very pleasant, kept things nicely replenished and had ready smiles.
+Overall, this property successfully hits all the "key performance indicators" (KPI) that I look for in a hotel stay. I would have rated them 5-stars but there is one potential area of improvement that prevented me from doing so: the bedroom had a strong smell of either an air freshener or cleaning spray - this may be overpowering for some people, and I would recommend the hotel review this.
+While located beside the freeway, it is surrounded by hotels, corporate offices and trees, which actually gives it a very peaceful feeling....First impression: Check-in was quick and friendly. Karen at the front desk was friendly, courteous, and informative. Renovations at the hotel appear to be complete so the entire hotel looks and feels new. The room: Nicely renovated and clean. Comfortable beds and pillows. Lotsa power hook-ups beside the bed or at the desk, which is nice cos I could use and charge my laptop in bed easily. Bathroom was equipped with the usual amenities, and shower flow was great.Breakfast was a complimentary full hot breakfast. On the day I had it, they were serving sausages, flat eggs and boiled eggs but I overheard the lady working there say that they change the hot items daily. Other items include fruits, bread, yoghurt, juice, and cereal selections, as well as a waffle maker. Lady working in the bedroom room was very pleasant, kept things nicely replenished and had ready smiles.Overall, this property successfully hits all the "key performance indicators" (KPI) that I look for in a hotel stay. I would have rated them 5-stars but there is one potential area of improvement that prevented me from doing so: the bedroom had a strong smell of either an air freshener or cleaning spray - this may be overpowering for some people, and I would recommend the hotel review this.While located beside the freeway, it is surrounded by hotels, corporate offices and trees, which actually gives it a very peaceful feeling. I also found the location provided easy access to all the things I wanted to do in Houston, and would stay here when I return to the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>First impression: 
+Check-in was quick and friendly. Karen at the front desk was friendly, courteous, and informative. Renovations at the hotel appear to be complete so the entire hotel looks and feels new. 
+The room: Nicely renovated and clean. Comfortable beds and pillows. Lotsa power hook-ups beside the bed or at the desk, which is nice cos I could use and charge my laptop in bed easily. Bathroom was equipped with the usual amenities, and shower flow was great.
+Breakfast was a complimentary full hot breakfast. On the day I had it, they were serving sausages, flat eggs and boiled eggs but I overheard the lady working there say that they change the hot items daily. Other items include fruits, bread, yoghurt, juice, and cereal selections, as well as a waffle maker. Lady working in the bedroom room was very pleasant, kept things nicely replenished and had ready smiles.
+Overall, this property successfully hits all the "key performance indicators" (KPI) that I look for in a hotel stay. I would have rated them 5-stars but there is one potential area of improvement that prevented me from doing so: the bedroom had a strong smell of either an air freshener or cleaning spray - this may be overpowering for some people, and I would recommend the hotel review this.
+While located beside the freeway, it is surrounded by hotels, corporate offices and trees, which actually gives it a very peaceful feeling....First impression: Check-in was quick and friendly. Karen at the front desk was friendly, courteous, and informative. Renovations at the hotel appear to be complete so the entire hotel looks and feels new. The room: Nicely renovated and clean. Comfortable beds and pillows. Lotsa power hook-ups beside the bed or at the desk, which is nice cos I could use and charge my laptop in bed easily. Bathroom was equipped with the usual amenities, and shower flow was great.Breakfast was a complimentary full hot breakfast. On the day I had it, they were serving sausages, flat eggs and boiled eggs but I overheard the lady working there say that they change the hot items daily. Other items include fruits, bread, yoghurt, juice, and cereal selections, as well as a waffle maker. Lady working in the bedroom room was very pleasant, kept things nicely replenished and had ready smiles.Overall, this property successfully hits all the "key performance indicators" (KPI) that I look for in a hotel stay. I would have rated them 5-stars but there is one potential area of improvement that prevented me from doing so: the bedroom had a strong smell of either an air freshener or cleaning spray - this may be overpowering for some people, and I would recommend the hotel review this.While located beside the freeway, it is surrounded by hotels, corporate offices and trees, which actually gives it a very peaceful feeling. I also found the location provided easy access to all the things I wanted to do in Houston, and would stay here when I return to the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r147629147-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147629147</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Renovation well worth it</t>
+  </si>
+  <si>
+    <t>I've stayed here several times in the last year.  Last week was my first time in one of the newly remodeled rooms.  A definate improvement in almost every way - real and cosmetic.  Have not yet spent enough time there to understand how easy it is to work from the room, but looks like an improvement.  All the ingredients are in place for a hassle-free stay.  The only drawbacks were what looked like hasty installation left furniture alignment ajar and some unusual arrangements of bedside stands.  On the whole, a dramatic improvement.Staff has always been helpful.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r146566544-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146566544</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Good experience despite ongoing renovation work at hotel</t>
+  </si>
+  <si>
+    <t>Spent one night there for business.  They are currently going through a renovation the hotel.  However, I had a very good experience.  The staff were friendly and helpful.  They helped with finding a place nearby to eat.  The hotel workout room was unavailable due to construction.  However the hotel offered free passes to gym just a couple blocks away that was fabulous.  The morning breakfast was good. One minor issue:  Wanted to take some conference calls from the room using speakerphone but the phone didn't have the option and the sound quality overall was poor with the phone.  Perhaps that is getting fixed with their renovation.  Other than that, it was a very good experience I look forward to coming back next when the renovation is done.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Spent one night there for business.  They are currently going through a renovation the hotel.  However, I had a very good experience.  The staff were friendly and helpful.  They helped with finding a place nearby to eat.  The hotel workout room was unavailable due to construction.  However the hotel offered free passes to gym just a couple blocks away that was fabulous.  The morning breakfast was good. One minor issue:  Wanted to take some conference calls from the room using speakerphone but the phone didn't have the option and the sound quality overall was poor with the phone.  Perhaps that is getting fixed with their renovation.  Other than that, it was a very good experience I look forward to coming back next when the renovation is done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r144188326-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144188326</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Friendly Clean Helpful with Delicious Cookies</t>
+  </si>
+  <si>
+    <t>Our school group stayed here, and the boys loved the free cookies!  And everyone was so nice!We left a shirt in the room and the management sent it to via Fed Ex at no charge!  They were so helpful.Our tennis team loved the location and the food and the management was so supportive.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r123470944-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123470944</t>
+  </si>
+  <si>
+    <t>01/22/2012</t>
+  </si>
+  <si>
+    <t>Affordable, great location</t>
+  </si>
+  <si>
+    <t>Clean, reasonably priced in a convenient location. Breakfast has a variety items.  Plenty of dining nearby. Close to Galleria and other shopping.  A great value for this location.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r121799972-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121799972</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>This place is like a second home to me.  I have been traveling back and forth to Houston for the past six years to take care of my mother.  The housekeeping service is excellent.  The breakfast is wonderful.  Though there is no laundry on site, I am able to go right across the street to the Homewood Suites to do my laundry.  Wonderful indoor pool.  Easy access to the Beltway.  Very safe location.  Would highly recommend.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r119629050-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119629050</t>
+  </si>
+  <si>
+    <t>10/23/2011</t>
+  </si>
+  <si>
+    <t>Excellent service!</t>
+  </si>
+  <si>
+    <t>We spent one night at this very affordable location ($99 a night). At check in, as a Marriott elite member, we requested a room upgrade. An (turned out to be new) employee at the reception desk denied our request for unavaibility, and we expressed some sort of disappointment. As we walked into our room, the manager on duty called up and apologized, then we were offered an upgrade. Both the male employee and the female manager were quite courteous and very professional. Our cousins from Paris, France just loved the hotel's complimentary breakfast! The hotel is 5-minute away from "Little Saigon" and 15-minute away from The Galleria? Getting in and out the freeway was very easy and convenient. And not just breakfast is free but parking spaces too! All was well and we enjoyed our stay. We will definitely come back to this hotel on our next trip to Houston,MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>We spent one night at this very affordable location ($99 a night). At check in, as a Marriott elite member, we requested a room upgrade. An (turned out to be new) employee at the reception desk denied our request for unavaibility, and we expressed some sort of disappointment. As we walked into our room, the manager on duty called up and apologized, then we were offered an upgrade. Both the male employee and the female manager were quite courteous and very professional. Our cousins from Paris, France just loved the hotel's complimentary breakfast! The hotel is 5-minute away from "Little Saigon" and 15-minute away from The Galleria? Getting in and out the freeway was very easy and convenient. And not just breakfast is free but parking spaces too! All was well and we enjoyed our stay. We will definitely come back to this hotel on our next trip to Houston,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r78222264-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>78222264</t>
+  </si>
+  <si>
+    <t>09/04/2010</t>
+  </si>
+  <si>
+    <t>The big lie: Complimentary "High-speed" Internet in guest rooms</t>
+  </si>
+  <si>
+    <t>Hubby &amp; I stayed here for 5 nights.  The stay was fine EXCEPT FOR the slower-than-dial-up internet. Literally, click and walk away and do something! I told the desk, and they said they were aware of it, they had to live with it too.  This is a deal breaker. We won't be returning to this hotel, even though the staff were very nice, room was clean, bed was very comfortable, complimentary breakfast was good. Our room was an odd number (on S side), so was quiet. We didn't use the pool, but it looked fine. Parking was well-lighted. But with the tollway right in front of the hotel, we parked our car on the west end for security. Lighting was good in parking lot, just a precaution knowing Houston. One more thing, there's no exercise room, but a sign in the elevator said Fairfield guests could use a local workout facility (.6 miles away) for free.  Would be great to have one on-sight since this hotel mainly caters to business travelors.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Hubby &amp; I stayed here for 5 nights.  The stay was fine EXCEPT FOR the slower-than-dial-up internet. Literally, click and walk away and do something! I told the desk, and they said they were aware of it, they had to live with it too.  This is a deal breaker. We won't be returning to this hotel, even though the staff were very nice, room was clean, bed was very comfortable, complimentary breakfast was good. Our room was an odd number (on S side), so was quiet. We didn't use the pool, but it looked fine. Parking was well-lighted. But with the tollway right in front of the hotel, we parked our car on the west end for security. Lighting was good in parking lot, just a precaution knowing Houston. One more thing, there's no exercise room, but a sign in the elevator said Fairfield guests could use a local workout facility (.6 miles away) for free.  Would be great to have one on-sight since this hotel mainly caters to business travelors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r59863627-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59863627</t>
+  </si>
+  <si>
+    <t>03/29/2010</t>
+  </si>
+  <si>
+    <t>Basic, Very Noisy from Road/hard to sleep, rather pricey but less than hotels by Galleria</t>
+  </si>
+  <si>
+    <t>We stayed in rm 306. Top floor - North facing - end by the highway.
+We just needed a one night stay - and found the other hotels by the Galleria to be $200 plus - which is way to much for Houston. So I picked this place.
+$111 with tax
+(mainly on location, my affinity for marriott,  and a "reasonable" price - for the west side of Houston )
+1) Too Noisy for a good night's sleep-
+For the item a hotel room must accomplish - a good night 's sleep - it fails. 
+The road noise was very loud, with 4 passes with siren by some ambulance. 
+Normally I just run the HVAC fan (fan only) to drown this out - but the AC units at this place only run the fan when the heater-or-ac kicks on from the digital set point. 
+So no luck using the fan to kill the noise.
+(so avoid the North Side of the blg - the even numbered rooms)
+2) Booking Issue - Romance pkg-
+I booked directly on Marriott.com. I picked the romance pkg - which was few dollars less - and said it included chocolates at check in &amp; a bottle of champagne in the room. 
+This is NOT the case. 
+At check-in - I asked, &amp; asked again. I was told by the front desk person "We don't even do that". 
+So don't be fooled.
+3) It is a...We stayed in rm 306. Top floor - North facing - end by the highway.We just needed a one night stay - and found the other hotels by the Galleria to be $200 plus - which is way to much for Houston. So I picked this place.$111 with tax(mainly on location, my affinity for marriott,  and a "reasonable" price - for the west side of Houston )1) Too Noisy for a good night's sleep-For the item a hotel room must accomplish - a good night 's sleep - it fails. The road noise was very loud, with 4 passes with siren by some ambulance. Normally I just run the HVAC fan (fan only) to drown this out - but the AC units at this place only run the fan when the heater-or-ac kicks on from the digital set point. So no luck using the fan to kill the noise.(so avoid the North Side of the blg - the even numbered rooms)2) Booking Issue - Romance pkg-I booked directly on Marriott.com. I picked the romance pkg - which was few dollars less - and said it included chocolates at check in &amp; a bottle of champagne in the room. This is NOT the case. At check-in - I asked, &amp; asked again. I was told by the front desk person "We don't even do that". So don't be fooled.3) It is a basic hotel (as you would expect for a fairfield) - It has a pool. Wife said the breakfast was ok/fine.(if they could address the noise issue - it would be ok - but expensive)4) Our room showed wear and tear - Bathroom door did not close without some real special effort (we told them about this upon checkout)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We stayed in rm 306. Top floor - North facing - end by the highway.
+We just needed a one night stay - and found the other hotels by the Galleria to be $200 plus - which is way to much for Houston. So I picked this place.
+$111 with tax
+(mainly on location, my affinity for marriott,  and a "reasonable" price - for the west side of Houston )
+1) Too Noisy for a good night's sleep-
+For the item a hotel room must accomplish - a good night 's sleep - it fails. 
+The road noise was very loud, with 4 passes with siren by some ambulance. 
+Normally I just run the HVAC fan (fan only) to drown this out - but the AC units at this place only run the fan when the heater-or-ac kicks on from the digital set point. 
+So no luck using the fan to kill the noise.
+(so avoid the North Side of the blg - the even numbered rooms)
+2) Booking Issue - Romance pkg-
+I booked directly on Marriott.com. I picked the romance pkg - which was few dollars less - and said it included chocolates at check in &amp; a bottle of champagne in the room. 
+This is NOT the case. 
+At check-in - I asked, &amp; asked again. I was told by the front desk person "We don't even do that". 
+So don't be fooled.
+3) It is a...We stayed in rm 306. Top floor - North facing - end by the highway.We just needed a one night stay - and found the other hotels by the Galleria to be $200 plus - which is way to much for Houston. So I picked this place.$111 with tax(mainly on location, my affinity for marriott,  and a "reasonable" price - for the west side of Houston )1) Too Noisy for a good night's sleep-For the item a hotel room must accomplish - a good night 's sleep - it fails. The road noise was very loud, with 4 passes with siren by some ambulance. Normally I just run the HVAC fan (fan only) to drown this out - but the AC units at this place only run the fan when the heater-or-ac kicks on from the digital set point. So no luck using the fan to kill the noise.(so avoid the North Side of the blg - the even numbered rooms)2) Booking Issue - Romance pkg-I booked directly on Marriott.com. I picked the romance pkg - which was few dollars less - and said it included chocolates at check in &amp; a bottle of champagne in the room. This is NOT the case. At check-in - I asked, &amp; asked again. I was told by the front desk person "We don't even do that". So don't be fooled.3) It is a basic hotel (as you would expect for a fairfield) - It has a pool. Wife said the breakfast was ok/fine.(if they could address the noise issue - it would be ok - but expensive)4) Our room showed wear and tear - Bathroom door did not close without some real special effort (we told them about this upon checkout)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r33849332-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>33849332</t>
+  </si>
+  <si>
+    <t>07/03/2009</t>
+  </si>
+  <si>
+    <t>Convenient, Clean, Comfortable</t>
+  </si>
+  <si>
+    <t>Desirable location off Sam Houston Pkwy yet tucked away from the hustle &amp; bustle.  Convenient to a lot of amenities, food places, gas, etc.   Courteous &amp; professional staff.    Clean/tidy - NO PETS!   Comfy beds with 5 pillows per bed!   Free internet!   Nice indoor pool.   Approx 10 minutes to Galleria, Walmart/Target, Bellaire Chinatown.   Breakfast was adequate and typical of all Fairfields (waffle, eggs, cereal, oatmeal, bagel, toast, yogurt, and packaged Jimmy Dean sausage biscuits, juice, coffee, hot cocoa, tea, fruits)</t>
+  </si>
+  <si>
+    <t>July 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1874,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1906,3561 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>281</v>
+      </c>
+      <c r="X29" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s">
+        <v>288</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>289</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X30" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s">
+        <v>297</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>298</v>
+      </c>
+      <c r="X31" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>307</v>
+      </c>
+      <c r="X32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" t="s">
+        <v>318</v>
+      </c>
+      <c r="K34" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s">
+        <v>320</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>337</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>338</v>
+      </c>
+      <c r="X37" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>346</v>
+      </c>
+      <c r="O38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>338</v>
+      </c>
+      <c r="X38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>350</v>
+      </c>
+      <c r="K39" t="s">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s">
+        <v>352</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>353</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>354</v>
+      </c>
+      <c r="X39" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>363</v>
+      </c>
+      <c r="X40" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>367</v>
+      </c>
+      <c r="J41" t="s">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>371</v>
+      </c>
+      <c r="O41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>372</v>
+      </c>
+      <c r="X42" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>380</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>387</v>
+      </c>
+      <c r="X43" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>391</v>
+      </c>
+      <c r="J44" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" t="s">
+        <v>394</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>395</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>398</v>
+      </c>
+      <c r="K46" t="s">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>408</v>
+      </c>
+      <c r="J47" t="s">
+        <v>409</v>
+      </c>
+      <c r="K47" t="s">
+        <v>410</v>
+      </c>
+      <c r="L47" t="s">
+        <v>411</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>412</v>
+      </c>
+      <c r="O47" t="s">
+        <v>134</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>414</v>
+      </c>
+      <c r="J48" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" t="s">
+        <v>416</v>
+      </c>
+      <c r="L48" t="s">
+        <v>417</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>418</v>
+      </c>
+      <c r="O48" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>425</v>
+      </c>
+      <c r="O49" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>426</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" t="s">
+        <v>429</v>
+      </c>
+      <c r="L50" t="s">
+        <v>430</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>431</v>
+      </c>
+      <c r="O50" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
+        <v>434</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
+      </c>
+      <c r="L51" t="s">
+        <v>436</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>437</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>439</v>
+      </c>
+      <c r="J52" t="s">
+        <v>440</v>
+      </c>
+      <c r="K52" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>443</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J53" t="s">
+        <v>447</v>
+      </c>
+      <c r="K53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L53" t="s">
+        <v>449</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>450</v>
+      </c>
+      <c r="O53" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>453</v>
+      </c>
+      <c r="J54" t="s">
+        <v>454</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>457</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" t="s">
+        <v>461</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>463</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>464</v>
+      </c>
+      <c r="O55" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_245.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_245.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,123 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r613008379-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107908</t>
+  </si>
+  <si>
+    <t>613008379</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>Nice Quiet Place</t>
+  </si>
+  <si>
+    <t>Reception help desk is very good, all the staffs are very cordial, helpful. Rooms are ok. Breakfast was ok, could have been better though. Very limited items for vegetarian. Surrounding is very quiet. They do not serve dinner but there are lots of good diners/restaurants within close distance.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r609378964-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>609378964</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>Love the location of this hotel, great places to eat and shop. The staff was very helpful. One recommendation that I have, is to make sure both televisions are working. We unpacked and were ready to relax when I try turning on the tv it said No Signal, I called the front desk and the receptionist offer to move us to another room, but we had already showered and just didn't wanted to go thru the hassle of moving. Living area tv worked just fine, but not the one by the bed.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Mark B, General Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Love the location of this hotel, great places to eat and shop. The staff was very helpful. One recommendation that I have, is to make sure both televisions are working. We unpacked and were ready to relax when I try turning on the tv it said No Signal, I called the front desk and the receptionist offer to move us to another room, but we had already showered and just didn't wanted to go thru the hassle of moving. Living area tv worked just fine, but not the one by the bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r573177888-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573177888</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Great check in experience and customer service</t>
+  </si>
+  <si>
+    <t>Near the Space Center, restaurants,  and stores... Amber was there when we checked in and was super nice and helpful. She even called to verify that the room was good. I used the treadmill in the fitness room and it was of unexpected high quality. Impressed with place overall. The breakfast even had soy milk and gluten ‘free’ options.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Mark B, General Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Near the Space Center, restaurants,  and stores... Amber was there when we checked in and was super nice and helpful. She even called to verify that the room was good. I used the treadmill in the fitness room and it was of unexpected high quality. Impressed with place overall. The breakfast even had soy milk and gluten ‘free’ options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r569991395-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569991395</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Great Service and Hospitality</t>
+  </si>
+  <si>
+    <t>This property is great!!! The General Manager runs a beautiful home for the Business Traveler.  The Indoor Pool and Fitness Room are clean and perfect after a busy day in the office or early in the morning before the stressful traffic of Houston. Breakfast is outstanding with a Large Green Table for sharing Table Talk. Fresh cookies in the evenings.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Mark B, General Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>This property is great!!! The General Manager runs a beautiful home for the Business Traveler.  The Indoor Pool and Fitness Room are clean and perfect after a busy day in the office or early in the morning before the stressful traffic of Houston. Breakfast is outstanding with a Large Green Table for sharing Table Talk. Fresh cookies in the evenings.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r560110325-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107908</t>
-  </si>
-  <si>
     <t>560110325</t>
   </si>
   <si>
@@ -177,9 +282,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Mark B, General Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 13, 2018</t>
   </si>
   <si>
@@ -237,9 +339,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded October 16, 2017</t>
   </si>
   <si>
@@ -249,6 +348,57 @@
     <t>I booked this hotel because of the good reviews. After staying there for 3 days, there are few things about this hotel. The elevator had a foul odor in it for the whole 3 days.  The beds were dated and had a indentation in the middle of the bed. After 2 nights sleep on the bed, my bad back began to act up with soreness and tenderness. I was there in mid October and had lots of families with kids were there.  Also, I am a Elite member and used the app to requested some toiletries such as toothbrush and shavers. They were never to be seen in the room after check in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r527290187-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527290187</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>The room was ok. The bed was soft and comfy.it just smelled damp in the room.the hot tub didnt work so we couldn't use it. The breakfast attend was rude. My restroom ceiling had mold. I just felt very uncomfortable at this place. Even tho it was a birthday gift. The from desk staff was nice and friendly. Front desk staff has vert good customer service skills and i really appreciate them.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>The room was ok. The bed was soft and comfy.it just smelled damp in the room.the hot tub didnt work so we couldn't use it. The breakfast attend was rude. My restroom ceiling had mold. I just felt very uncomfortable at this place. Even tho it was a birthday gift. The from desk staff was nice and friendly. Front desk staff has vert good customer service skills and i really appreciate them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r525134716-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525134716</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Customer service goes above and beyond</t>
+  </si>
+  <si>
+    <t>David and Jacob went above and beyond to be accommodating after the Main reservation line (not related to this property) had provided me with bad information. The bad info involved payment for the room, so you can imagine I wasn't pleased; however, David and Jacob worked with me until the point of resolution &amp; were both very pleasant to deal with, despite my attitude. Great location - shopping, eating, &amp; working are all nearby. Easy on/off the the highway, and right next to a Whataburger (&lt;--this is big for a out of towner whom loves Whataburger.)MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>David and Jacob went above and beyond to be accommodating after the Main reservation line (not related to this property) had provided me with bad information. The bad info involved payment for the room, so you can imagine I wasn't pleased; however, David and Jacob worked with me until the point of resolution &amp; were both very pleasant to deal with, despite my attitude. Great location - shopping, eating, &amp; working are all nearby. Easy on/off the the highway, and right next to a Whataburger (&lt;--this is big for a out of towner whom loves Whataburger.)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r523586856-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -264,9 +414,6 @@
     <t>Great staff.....Jacob and David at check in and Sam and Gilbert during reservations. Everyone we dealt with at this hotel were on top of their game. Not usually impressed with hotel staff. The rooms were clean. Only thing I saw that need attention was the vent in the bathroom. Very dusty. The lady who served and tended to the breakfast was also pleasant to deal with. She was on her game! My husband and I stayed here to help some friends with their flooded out home.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -324,6 +471,57 @@
     <t>Very friendly staff. Great customer service and check-in by Jasmine.  Appreciated the overnight security as we had a u-haul trailer. Made us feel safe. Breakfast was a cut above other Fairfield's. indoor pool.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r508234765-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508234765</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff!</t>
+  </si>
+  <si>
+    <t>I choose to stay at this Fairfield location whenever I am in Houston for business.  The rooms are always clean, comfortable and quiet.  However, the amazing staff, especially Jazmine at the front desk, are what make this location great!  Thank you for always making me feel welcome during my stays!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>I choose to stay at this Fairfield location whenever I am in Houston for business.  The rooms are always clean, comfortable and quiet.  However, the amazing staff, especially Jazmine at the front desk, are what make this location great!  Thank you for always making me feel welcome during my stays!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r493626155-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493626155</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truly amazed! </t>
+  </si>
+  <si>
+    <t>I'm staying here for the night, and I was fortunate to have the opportunity to meet Jacob, &amp; Jazmin.  They were at the front desk, and displayed exceptional determination to make our stay memorable. Jacob time and again assisted us by doing things that I'm sure housekeeping would have done (while in a men's suit).  This team of Jazmin and Jacob, is really a winning combination.  I wish every hotel hired personnel like them.  To say that customers are family, is one thing, but to truly mean it by actions, and by going the extra mile, means something entirely different. You guys rock! Keep it up!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>I'm staying here for the night, and I was fortunate to have the opportunity to meet Jacob, &amp; Jazmin.  They were at the front desk, and displayed exceptional determination to make our stay memorable. Jacob time and again assisted us by doing things that I'm sure housekeeping would have done (while in a men's suit).  This team of Jazmin and Jacob, is really a winning combination.  I wish every hotel hired personnel like them.  To say that customers are family, is one thing, but to truly mean it by actions, and by going the extra mile, means something entirely different. You guys rock! Keep it up!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r493092984-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -339,9 +537,6 @@
     <t>I lost my car and house key ring and was going crazy looking everywhere. The front desk staff members, Jacob and Jazmine, were excellent in calming me down, assuring me we would find the keys and went about locating the keys. They maintained a wonderful disposition throughout the ordeal which helped me to feel better. I can gladly say the key ring was found and a disaster averted! Thank you again Jacob and Jazmine!!! Great people really do make a difference!MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded June 19, 2017</t>
   </si>
   <si>
@@ -402,6 +597,54 @@
     <t>2 seniors from Belize , lost on the many roads at nite trying to reach the hotel.Frustrated and tired. Stopped at gas stations, other near by hotels to ask fir directions.No one knew of the place or how to get to it?So tried to call hotel directly only yo get and automatic answering machine ?Found it rested very well in a clean comfy bed.From then on our trip was super!Sam and a Linda are a great asset to Fairfield at the front desk so helpful.Will stay again if back in Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r485786584-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485786584</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Treasurer</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here and I must sayThe staff is the epitome of customer Service.  Just tonight Rithin and David went out of their way to make sure all 5 of us had a water and not only that made us a fresh batch of cookies.This morning the staff bent over backwards to make us feel the loveI/ we will definitely w back.Thank you for such a wonderful stayEileen Lombertino MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here and I must sayThe staff is the epitome of customer Service.  Just tonight Rithin and David went out of their way to make sure all 5 of us had a water and not only that made us a fresh batch of cookies.This morning the staff bent over backwards to make us feel the loveI/ we will definitely w back.Thank you for such a wonderful stayEileen Lombertino More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r482725765-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482725765</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel, and everything was very nice. The staff was super friendly and very helpful. The room was clean and the beds were comfortable. The breakfast was good too. We were very impressed!! My mother said she has stayed here many times in the past, and that's why she wanted to stay here on this visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel, and everything was very nice. The staff was super friendly and very helpful. The room was clean and the beds were comfortable. The breakfast was good too. We were very impressed!! My mother said she has stayed here many times in the past, and that's why she wanted to stay here on this visit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r475665978-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -418,9 +661,6 @@
   </si>
   <si>
     <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded April 17, 2017</t>
@@ -487,6 +727,57 @@
     <t>I recently spent 49 nights at this property. Each morning I was greeted by the friendly woman who prepares the breakfast. The manager would also welcome me on most mornings. The room was always cleaned wonderfully and I was welcomed back to the hotel everyday by the warm personalities that work the front desk. Most days they have fresh baked cookies in the lobby in the late afternoon. I will be back shortly for another extended stay and look forward to seeing everyone again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r459721781-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459721781</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>This property is well kept and boasts a friendly staff.Madilyn (spelling?) was great at check-in and had a warm smile for us. Ken, the chief engineer was always seen with a smile on his face, which is awesome! Breakfast was excellent and the dining area was well kept. We enjoyed having a mini fridge and microwave in our room. We didn't use the pool, but it looked well maintained. The fitness center was small and looked to be on the cramped side, but provided plenty of choices for me, though I didn't make time to use the facility. Our second-floor room had windows that opened, that was nice since Houston had lovely weather when we visited.I would recommend staying here for sure! Should I find myself in the same area, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>This property is well kept and boasts a friendly staff.Madilyn (spelling?) was great at check-in and had a warm smile for us. Ken, the chief engineer was always seen with a smile on his face, which is awesome! Breakfast was excellent and the dining area was well kept. We enjoyed having a mini fridge and microwave in our room. We didn't use the pool, but it looked well maintained. The fitness center was small and looked to be on the cramped side, but provided plenty of choices for me, though I didn't make time to use the facility. Our second-floor room had windows that opened, that was nice since Houston had lovely weather when we visited.I would recommend staying here for sure! Should I find myself in the same area, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r450280387-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450280387</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Worth it!</t>
+  </si>
+  <si>
+    <t>We found this hotel to be immaculate. The check in was swift and Josh very accommodating, breakfast was delicious and a lot of variety made by Rosalind. It was hot and had many offerings and she made the time there enjoyable with a sweet outgoing personality. The front office manager RJ made sure we got our free night ( we're rewards members and turned in points) and treated us well. We plan to stay again on our return trip and look forward to seeing them again. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>We found this hotel to be immaculate. The check in was swift and Josh very accommodating, breakfast was delicious and a lot of variety made by Rosalind. It was hot and had many offerings and she made the time there enjoyable with a sweet outgoing personality. The front office manager RJ made sure we got our free night ( we're rewards members and turned in points) and treated us well. We plan to stay again on our return trip and look forward to seeing them again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r449389652-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -562,6 +853,64 @@
     <t>Got a room for disabled people so very much space. Bathroom clean, nice bed, iron in room. So far so good. Good service at reception. Aircon noisy, but windows can be opened and this is a quiet area and December temperature in Houston at night is ok. No food available after breakfast except vending machines, tried to order takeaway at 9pm from a list of brochures given from reception without luck. Breakfast on disposable plates and unhealthy alternatives. Excellent location for Phillips66 headquarters meeting, as it is next door. All in all ok, but not to that price, paid USD 164 one night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r436243232-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436243232</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Good hotel, solid basics, clean, good breakfast</t>
+  </si>
+  <si>
+    <t>I recently stayed here 2 nights on a business trip. I was well greeted at the desk and check-in was reasonably short. They had fresh baked cookies but they were mediocre. The room was very clean. The bathroom had good counter space and a full set of complementary toiletries. There was a small fridge and a microwave and a coffee maker in my room. Room HVAC reasonably quiet. Desk area was big with plenty of outlets. TV was close enough for me to connect to via HDMI cable (I brought along) and watch a movie off my laptop. Free Wi-Fi in room and lobby. Reliable, decent at ~2M up and down. Closet is narrow. Three shirts and two pairs of pants just about filled it up. Two people on a longer stay would have trouble I think. Bed hardness was fine but the sheets felt like they had skipped the softener on this batch so I requested a change for night #2, which was better. One of the trash cans in my room was not emptied by maid service during my first day, but everything else was done properly. The included breakfast was good, including waffles and three kinds of eggs and two kinds of hot meats and cereal and juice and coffee and fruit, etc. No complaints there. None of the rooms face the nearby Sam Houston Parkway and its traffic, so there was pretty much no noise. Westheimer...I recently stayed here 2 nights on a business trip. I was well greeted at the desk and check-in was reasonably short. They had fresh baked cookies but they were mediocre. The room was very clean. The bathroom had good counter space and a full set of complementary toiletries. There was a small fridge and a microwave and a coffee maker in my room. Room HVAC reasonably quiet. Desk area was big with plenty of outlets. TV was close enough for me to connect to via HDMI cable (I brought along) and watch a movie off my laptop. Free Wi-Fi in room and lobby. Reliable, decent at ~2M up and down. Closet is narrow. Three shirts and two pairs of pants just about filled it up. Two people on a longer stay would have trouble I think. Bed hardness was fine but the sheets felt like they had skipped the softener on this batch so I requested a change for night #2, which was better. One of the trash cans in my room was not emptied by maid service during my first day, but everything else was done properly. The included breakfast was good, including waffles and three kinds of eggs and two kinds of hot meats and cereal and juice and coffee and fruit, etc. No complaints there. None of the rooms face the nearby Sam Houston Parkway and its traffic, so there was pretty much no noise. Westheimer and lots of small restaurants and other businesses and easy walk away. No ice machine on my floor but there was one on the first floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed here 2 nights on a business trip. I was well greeted at the desk and check-in was reasonably short. They had fresh baked cookies but they were mediocre. The room was very clean. The bathroom had good counter space and a full set of complementary toiletries. There was a small fridge and a microwave and a coffee maker in my room. Room HVAC reasonably quiet. Desk area was big with plenty of outlets. TV was close enough for me to connect to via HDMI cable (I brought along) and watch a movie off my laptop. Free Wi-Fi in room and lobby. Reliable, decent at ~2M up and down. Closet is narrow. Three shirts and two pairs of pants just about filled it up. Two people on a longer stay would have trouble I think. Bed hardness was fine but the sheets felt like they had skipped the softener on this batch so I requested a change for night #2, which was better. One of the trash cans in my room was not emptied by maid service during my first day, but everything else was done properly. The included breakfast was good, including waffles and three kinds of eggs and two kinds of hot meats and cereal and juice and coffee and fruit, etc. No complaints there. None of the rooms face the nearby Sam Houston Parkway and its traffic, so there was pretty much no noise. Westheimer...I recently stayed here 2 nights on a business trip. I was well greeted at the desk and check-in was reasonably short. They had fresh baked cookies but they were mediocre. The room was very clean. The bathroom had good counter space and a full set of complementary toiletries. There was a small fridge and a microwave and a coffee maker in my room. Room HVAC reasonably quiet. Desk area was big with plenty of outlets. TV was close enough for me to connect to via HDMI cable (I brought along) and watch a movie off my laptop. Free Wi-Fi in room and lobby. Reliable, decent at ~2M up and down. Closet is narrow. Three shirts and two pairs of pants just about filled it up. Two people on a longer stay would have trouble I think. Bed hardness was fine but the sheets felt like they had skipped the softener on this batch so I requested a change for night #2, which was better. One of the trash cans in my room was not emptied by maid service during my first day, but everything else was done properly. The included breakfast was good, including waffles and three kinds of eggs and two kinds of hot meats and cereal and juice and coffee and fruit, etc. No complaints there. None of the rooms face the nearby Sam Houston Parkway and its traffic, so there was pretty much no noise. Westheimer and lots of small restaurants and other businesses and easy walk away. No ice machine on my floor but there was one on the first floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r390711817-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390711817</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Two night stay with family</t>
+  </si>
+  <si>
+    <t>Our family of 4 stayed in a two queen bed room on our trip across Texas.  This hotel is fairly new as are the competitors nearby.  The room was definitely a contemporary feel especially with the carpet, wallpaper, and furniture.  Beds and pillows were comfy, and couldn't hear any outside noise at night.  The bathroom was nice as well with a large countertop.  One thing that I thought was neat about the shower was that they added a shelf on the back wall of the shower.  You could put your shampoo and soap bottles up there and not worry about them falling into the tub.  Very smart and probably not too expensive but this is the only hotel I have stayed at where I've seen this.  Room was also equipped with a modern television with a nice variety of channels, microwave, refrigerator, ironing board with iron, and hair dryer.
+The free breakfast was quite adequate -- scrambled eggs, sausage, bacon, muffins, bagels, cereal, yogurt, waffle maker, and juices.  The sitting area is large and modern -- one of the nicest we've seen.  This hotel also has a fitness room (with free weights and bench, a couple of treadmills with the TV built-in, and an elliptical with the TV built-in; don't forget your earbuds.  All was in working order.  They also supplied towels and filtered water.
+The outdoor pool looked great although we didn't have time on our trip to enjoy...Our family of 4 stayed in a two queen bed room on our trip across Texas.  This hotel is fairly new as are the competitors nearby.  The room was definitely a contemporary feel especially with the carpet, wallpaper, and furniture.  Beds and pillows were comfy, and couldn't hear any outside noise at night.  The bathroom was nice as well with a large countertop.  One thing that I thought was neat about the shower was that they added a shelf on the back wall of the shower.  You could put your shampoo and soap bottles up there and not worry about them falling into the tub.  Very smart and probably not too expensive but this is the only hotel I have stayed at where I've seen this.  Room was also equipped with a modern television with a nice variety of channels, microwave, refrigerator, ironing board with iron, and hair dryer.The free breakfast was quite adequate -- scrambled eggs, sausage, bacon, muffins, bagels, cereal, yogurt, waffle maker, and juices.  The sitting area is large and modern -- one of the nicest we've seen.  This hotel also has a fitness room (with free weights and bench, a couple of treadmills with the TV built-in, and an elliptical with the TV built-in; don't forget your earbuds.  All was in working order.  They also supplied towels and filtered water.The outdoor pool looked great although we didn't have time on our trip to enjoy it.They also offer a coin-operated washer and dryer.  You can buy soap and dryer sheets at the front desk.All of the staff we encountered on this visit was friendly and helpful.  Check-in and check-out were a breeze.This hotel is located in the middle of a lot of things.  We were here to visit Space Center Houston, and we spent some time at Kemah Boardwalk.  Both were about 10-15 miles away.  It is also easy to find lots of shopping and lots of restaurants within a few miles.  Be forewarned that parts of Sam Houston Pkwy are toll roads.  You can generally avoid the tolls if you stay on Beltway 8.  We learned the hard way about their toll system.  Some of the sections are EZtag only, so there is no way for out-of-towners to pay at a tollbooth with cash.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Our family of 4 stayed in a two queen bed room on our trip across Texas.  This hotel is fairly new as are the competitors nearby.  The room was definitely a contemporary feel especially with the carpet, wallpaper, and furniture.  Beds and pillows were comfy, and couldn't hear any outside noise at night.  The bathroom was nice as well with a large countertop.  One thing that I thought was neat about the shower was that they added a shelf on the back wall of the shower.  You could put your shampoo and soap bottles up there and not worry about them falling into the tub.  Very smart and probably not too expensive but this is the only hotel I have stayed at where I've seen this.  Room was also equipped with a modern television with a nice variety of channels, microwave, refrigerator, ironing board with iron, and hair dryer.
+The free breakfast was quite adequate -- scrambled eggs, sausage, bacon, muffins, bagels, cereal, yogurt, waffle maker, and juices.  The sitting area is large and modern -- one of the nicest we've seen.  This hotel also has a fitness room (with free weights and bench, a couple of treadmills with the TV built-in, and an elliptical with the TV built-in; don't forget your earbuds.  All was in working order.  They also supplied towels and filtered water.
+The outdoor pool looked great although we didn't have time on our trip to enjoy...Our family of 4 stayed in a two queen bed room on our trip across Texas.  This hotel is fairly new as are the competitors nearby.  The room was definitely a contemporary feel especially with the carpet, wallpaper, and furniture.  Beds and pillows were comfy, and couldn't hear any outside noise at night.  The bathroom was nice as well with a large countertop.  One thing that I thought was neat about the shower was that they added a shelf on the back wall of the shower.  You could put your shampoo and soap bottles up there and not worry about them falling into the tub.  Very smart and probably not too expensive but this is the only hotel I have stayed at where I've seen this.  Room was also equipped with a modern television with a nice variety of channels, microwave, refrigerator, ironing board with iron, and hair dryer.The free breakfast was quite adequate -- scrambled eggs, sausage, bacon, muffins, bagels, cereal, yogurt, waffle maker, and juices.  The sitting area is large and modern -- one of the nicest we've seen.  This hotel also has a fitness room (with free weights and bench, a couple of treadmills with the TV built-in, and an elliptical with the TV built-in; don't forget your earbuds.  All was in working order.  They also supplied towels and filtered water.The outdoor pool looked great although we didn't have time on our trip to enjoy it.They also offer a coin-operated washer and dryer.  You can buy soap and dryer sheets at the front desk.All of the staff we encountered on this visit was friendly and helpful.  Check-in and check-out were a breeze.This hotel is located in the middle of a lot of things.  We were here to visit Space Center Houston, and we spent some time at Kemah Boardwalk.  Both were about 10-15 miles away.  It is also easy to find lots of shopping and lots of restaurants within a few miles.  Be forewarned that parts of Sam Houston Pkwy are toll roads.  You can generally avoid the tolls if you stay on Beltway 8.  We learned the hard way about their toll system.  Some of the sections are EZtag only, so there is no way for out-of-towners to pay at a tollbooth with cash.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r380986694-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -637,6 +986,50 @@
     <t>We spent one night here on our way to Galveston Island. We specifically were looking for a hotel near Chinatown and Rice University. It is about half hour from IAH, 15 mins to Rice University, and depending on where in Chinatown you are going, you could be there in 5 minutes (without traffic of course). The service is very good, and you get good value for your money with their breakfast and central location. The room is pretty standard and clean. The bathroom is tiny. Breakfast is nice including waffle and a variety of cold cereal, fruits, oatmeal, danish and pastries, bread and bagels, eggs and meat (bacon, sausage, ham). Free wifi is standard nowadays.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r367380936-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367380936</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Close to airport</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was close to IAH, had a free shuttle and a free breakfast. The hotel was really nice, had a pool, and had the best included breakfast I have ever had staying at any hotels ever. The price was right, check in was a breeze and the staff were very polite. All in all a great place to stay a few nights if you're catching a cruise or just laying over a few days.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r365383545-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365383545</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Flood Emergency Headquarters</t>
+  </si>
+  <si>
+    <t>Checked in the evening before the massive overnight flood disaster and am I glad that I did. 
+I checked in to the nicest night auditor ever named David. He offered me a bottle of water and after I asked if there was a laundromat on property he gave me detergent/dryer sheets w/o asking. Wowed me off the bat (talk about anticipating guest's needs!) 
+Somehow I slept through  Noahs flood (Houston style) and woke up for breakfast and to a lobby that looked like a flood command center. Understandably most of the day staff couldn't make it in to work but we never knew it. General manager Robby and 1other person was making it happen. Talkin about preparing breakfast, giving directions, assisting stranded motorists, handling phone calls, putting down extra mats, and towels for all the water..... these two people got it done son!  To top it off, the people off the street seeking shelter were treated like they were guests and Mr. Robby was so accommodating to us and them couldn't tell who was who &amp; it didnt matter bc everyone cared for each other after watching how hard Robby worked for all of us (A real class act). He didnt snap at anyone but was kind and professional given the pressure he was under.
+The hotel itself held strong (no power outage, roof leaks, anything). It was very up to date, clean, and brightly colored.
+Hot water? Oh did...Checked in the evening before the massive overnight flood disaster and am I glad that I did. I checked in to the nicest night auditor ever named David. He offered me a bottle of water and after I asked if there was a laundromat on property he gave me detergent/dryer sheets w/o asking. Wowed me off the bat (talk about anticipating guest's needs!) Somehow I slept through  Noahs flood (Houston style) and woke up for breakfast and to a lobby that looked like a flood command center. Understandably most of the day staff couldn't make it in to work but we never knew it. General manager Robby and 1other person was making it happen. Talkin about preparing breakfast, giving directions, assisting stranded motorists, handling phone calls, putting down extra mats, and towels for all the water..... these two people got it done son!  To top it off, the people off the street seeking shelter were treated like they were guests and Mr. Robby was so accommodating to us and them couldn't tell who was who &amp; it didnt matter bc everyone cared for each other after watching how hard Robby worked for all of us (A real class act). He didnt snap at anyone but was kind and professional given the pressure he was under.The hotel itself held strong (no power outage, roof leaks, anything). It was very up to date, clean, and brightly colored.Hot water? Oh did it have hot water?!?!!! Scalding which was great (unlike the last hotel I reviewed)Ok last thing: At time of checkout I had no place I could go....roads flooded &amp; news said to stay put (unexpected &amp; unbudgeted). I explained my dilemma to Robby and he totally understood fully. He offered me a fresh room (bc no housekeepers came in) &amp; 1/2 off the room rate I'd booked through a discounted booking site! Heard later that Robby was  actually the GM &amp; offered another job somewhere and would be leaving soon. All I can say is whoever gets his spot will have some BIG shoes to fill. Ciao.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in the evening before the massive overnight flood disaster and am I glad that I did. 
+I checked in to the nicest night auditor ever named David. He offered me a bottle of water and after I asked if there was a laundromat on property he gave me detergent/dryer sheets w/o asking. Wowed me off the bat (talk about anticipating guest's needs!) 
+Somehow I slept through  Noahs flood (Houston style) and woke up for breakfast and to a lobby that looked like a flood command center. Understandably most of the day staff couldn't make it in to work but we never knew it. General manager Robby and 1other person was making it happen. Talkin about preparing breakfast, giving directions, assisting stranded motorists, handling phone calls, putting down extra mats, and towels for all the water..... these two people got it done son!  To top it off, the people off the street seeking shelter were treated like they were guests and Mr. Robby was so accommodating to us and them couldn't tell who was who &amp; it didnt matter bc everyone cared for each other after watching how hard Robby worked for all of us (A real class act). He didnt snap at anyone but was kind and professional given the pressure he was under.
+The hotel itself held strong (no power outage, roof leaks, anything). It was very up to date, clean, and brightly colored.
+Hot water? Oh did...Checked in the evening before the massive overnight flood disaster and am I glad that I did. I checked in to the nicest night auditor ever named David. He offered me a bottle of water and after I asked if there was a laundromat on property he gave me detergent/dryer sheets w/o asking. Wowed me off the bat (talk about anticipating guest's needs!) Somehow I slept through  Noahs flood (Houston style) and woke up for breakfast and to a lobby that looked like a flood command center. Understandably most of the day staff couldn't make it in to work but we never knew it. General manager Robby and 1other person was making it happen. Talkin about preparing breakfast, giving directions, assisting stranded motorists, handling phone calls, putting down extra mats, and towels for all the water..... these two people got it done son!  To top it off, the people off the street seeking shelter were treated like they were guests and Mr. Robby was so accommodating to us and them couldn't tell who was who &amp; it didnt matter bc everyone cared for each other after watching how hard Robby worked for all of us (A real class act). He didnt snap at anyone but was kind and professional given the pressure he was under.The hotel itself held strong (no power outage, roof leaks, anything). It was very up to date, clean, and brightly colored.Hot water? Oh did it have hot water?!?!!! Scalding which was great (unlike the last hotel I reviewed)Ok last thing: At time of checkout I had no place I could go....roads flooded &amp; news said to stay put (unexpected &amp; unbudgeted). I explained my dilemma to Robby and he totally understood fully. He offered me a fresh room (bc no housekeepers came in) &amp; 1/2 off the room rate I'd booked through a discounted booking site! Heard later that Robby was  actually the GM &amp; offered another job somewhere and would be leaving soon. All I can say is whoever gets his spot will have some BIG shoes to fill. Ciao.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r365235535-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -703,6 +1096,36 @@
     <t>Recently I had an extended stay at the Fairfield as part of a work trip. My room was fairly comfortable and the staff were very friendly and offered help at every instance. In terms of getting around I found that the location was great and having access to the Parkway and Westheimer Rd was very convenient. My only concern were the occasions were my room hadn't been serviced when I return from work however a quick conversation with the front desk soon had this corrected. All in all a pleasant stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r356900179-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356900179</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent Stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The overall area is convenient and near lots of restaurant choices however, surrounding the hotel was a lot of construction and empty business space. Inside the hotel nearly everything is renovated and it felt very safe. There was a security guard in the lobby greeting people. The hallways looked a little dirty but the rooms were very clean. The room was very nice and had a microwave, television, and very clean bathroom. Overall, for a quick overnight stay on the road it's a great way to go for a good price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r352139948-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352139948</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>This hotel is by far one of the most affordable in the area and with really nice amenities. The indoor pool is awesome, there is a good hot breakfast, and the beds and pillows are comfortable. The front desk staff is super polite and helpful also. I would definitely stay here again! I have never stayed in a Fairfield before and was super happy with out choice.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r310722586-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -778,6 +1201,45 @@
     <t>Wonderful hotel! The staff were all very friendly. The room was clean and nice looking. Very comfortable room. Loved the indoor pool, we had it all to ourselves. I would definatly stay here again. The only downfall was the breakfast. It wasnt the best but alright if you're really hungry.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r287699745-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287699745</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent affordable option</t>
+  </si>
+  <si>
+    <t>If you're looking for a clean, quiet, and comfortable hotel with a convenient location, this Fairfield is a great option. You need a car to get to/from here, but there's free parking and you can easily get on major highways. The included breakfast, free wifi, fitness room, and pool are all added bennies.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you're looking for a clean, quiet, and comfortable hotel with a convenient location, this Fairfield is a great option. You need a car to get to/from here, but there's free parking and you can easily get on major highways. The included breakfast, free wifi, fitness room, and pool are all added bennies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r286354275-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286354275</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip in the area.  The hotel and room were clean.  The front desk staff were very helpful.  Sam and a young woman in training were very friendly and checked me in quickly and easily.  They thanked me for my visit also.  I needed help during the evening with a package and the gentleman working the overnight was very helpful with printing something for me because the computers in the lobby were not connecting to UPS for some reason.  I did not get to try the breakfast because my meetings were early morning.  Will visit again if in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip in the area.  The hotel and room were clean.  The front desk staff were very helpful.  Sam and a young woman in training were very friendly and checked me in quickly and easily.  They thanked me for my visit also.  I needed help during the evening with a package and the gentleman working the overnight was very helpful with printing something for me because the computers in the lobby were not connecting to UPS for some reason.  I did not get to try the breakfast because my meetings were early morning.  Will visit again if in the Houston area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r274820041-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -850,6 +1312,57 @@
     <t>I usually stay at a different property when I need to be in certain parts of Houston. Due to the Houston Rodeo, everything was sold out but I stumbled on to this property. Good location, right off Beltway 8 and plenty of shopping and restaurants. Check in was quick and the front office staff were very friendly and engaging. The room was clean and well appointed. Everything worked and the beds were comfortable. the windows open in the rooms so it was nice to let some fresh air in. I woke up too late to get breakfast but did check out the fitness center and the indoor pool. Both accessible once inside the hotel. Good location and good value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r259295421-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259295421</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>I'll just get to the point:--Great Service from check-in throughout my overnight stay--Extremely clean room and bathroom--Extremely clean throughout the Hotel.--Comfortable Bed--Nice Decor throughout the Hotel.--Indoor Pool is nice--Extremely well-maintained.  --Breakfast is good with hot and cold selections including plenty of fruit.  As expected.  --No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>I'll just get to the point:--Great Service from check-in throughout my overnight stay--Extremely clean room and bathroom--Extremely clean throughout the Hotel.--Comfortable Bed--Nice Decor throughout the Hotel.--Indoor Pool is nice--Extremely well-maintained.  --Breakfast is good with hot and cold selections including plenty of fruit.  As expected.  --No complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r259131732-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259131732</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Convenient location, friendly staff, terrible eggs -</t>
+  </si>
+  <si>
+    <t>I recently stayed at the property, and was generally happy with everything, but breakfast leaves something to be desired.   I don't understand how hotels would serve paying customers eggs that I would be embarassed to serve at home - there has to be a better product.  the little bottles of Tabasco sauce can only help so much.    Other than breakfast, staff is friendly, helpful.  Location close to several good resturants.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed at the property, and was generally happy with everything, but breakfast leaves something to be desired.   I don't understand how hotels would serve paying customers eggs that I would be embarassed to serve at home - there has to be a better product.  the little bottles of Tabasco sauce can only help so much.    Other than breakfast, staff is friendly, helpful.  Location close to several good resturants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r257492969-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -865,12 +1378,6 @@
     <t>Everyone was very very nice and friendly, it was our first trip to Houston and they were great. We didn't get to the hotel to check in until a little after 9pm and Karen and David were very welcoming, although everyone we came in contact with was very nice. They offered a list of restaurants in the area. We also thought we were having trouble with our key the next morning and Karen came up to our room to assist us and come to find out it was user error not the key lol. The only thing I would say would be that they ran out of bacon on Saturday morning but in their defense we did come don't to breakfast at about 9:45 and it ended at 10. That was once again on us. We were there earlier the next morning and it was good. Nice to have an indoor pool and hot breakfast rather than just regular boring continental which is the why we chose it and we will definitely be coming back!!!MoreShow less</t>
   </si>
   <si>
-    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 18, 2015</t>
-  </si>
-  <si>
-    <t>Responded March 18, 2015</t>
-  </si>
-  <si>
     <t>Everyone was very very nice and friendly, it was our first trip to Houston and they were great. We didn't get to the hotel to check in until a little after 9pm and Karen and David were very welcoming, although everyone we came in contact with was very nice. They offered a list of restaurants in the area. We also thought we were having trouble with our key the next morning and Karen came up to our room to assist us and come to find out it was user error not the key lol. The only thing I would say would be that they ran out of bacon on Saturday morning but in their defense we did come don't to breakfast at about 9:45 and it ended at 10. That was once again on us. We were there earlier the next morning and it was good. Nice to have an indoor pool and hot breakfast rather than just regular boring continental which is the why we chose it and we will definitely be coming back!!!More</t>
   </si>
   <si>
@@ -889,9 +1396,6 @@
     <t>We spent the weekend at this hotel and we loved it! The rooms are spacious and clean, the staff was VERY friendly and helpful, and the amenities were spot on. A month ago we stayed at a high-class hotel minutes from The Galleria, although lovely, our experience at Fairfield Inn was more enjoyable.Also loved the endless, complimentary coffee in lobby all-day long.If in Houston again will stay here!MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded March 19, 2015</t>
   </si>
   <si>
@@ -925,6 +1429,51 @@
     <t>I stayed here for two nights on business recently. The hotel is nice and clean and the rooms are comfortable with modern decor. The staff was friendly and I enjoyed the Texas shaped waffles for breakfast. There is an indoor pool and hot tub. If you have car, there are many restaurant choices in the area. If not, you can walk to a couple but it is not a pedestrian friendly area. The hotel will let you know which places deliver. I will stay here again on my next business visit. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r252751435-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252751435</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>12 night stay here recently on business. Quick check-in, comfortable room, good facilities, pretty much as expected, but special mention goes to the exceptional staff - everyone was very friendly and helpful. Breakfast was excellent. I look forward to staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>12 night stay here recently on business. Quick check-in, comfortable room, good facilities, pretty much as expected, but special mention goes to the exceptional staff - everyone was very friendly and helpful. Breakfast was excellent. I look forward to staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r252267388-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252267388</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Easy Check In, Great Room and Friendly Staff!</t>
+  </si>
+  <si>
+    <t>I was originally scheduled for 2 nights, flight was cancelled in Chicago due to weather and I wasn't able to notify the hotel of this until 9pm that night. They changed my arrival to the next day and did not charge me a "no show" fee for the 1st night due to the circumstance. Was easy to find the hotel right off of the highway and staff was extremely friendly and helpful upon check in. Comfortable beds, clean room and great wifi. Lots of shopping and restaurants nearby! I wasn't able to take advantage of breakfast as my flight was at 7am the next day, but would definitely recommend to anyone traveling to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>I was originally scheduled for 2 nights, flight was cancelled in Chicago due to weather and I wasn't able to notify the hotel of this until 9pm that night. They changed my arrival to the next day and did not charge me a "no show" fee for the 1st night due to the circumstance. Was easy to find the hotel right off of the highway and staff was extremely friendly and helpful upon check in. Comfortable beds, clean room and great wifi. Lots of shopping and restaurants nearby! I wasn't able to take advantage of breakfast as my flight was at 7am the next day, but would definitely recommend to anyone traveling to Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r251658638-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -940,15 +1489,6 @@
     <t>We flew to Houston late at night on January 13 for a funeral.  Although we had directions from George Bush Airport we got very lost.Upon calling the Fairfield Inn and explaining our dilemma, the very gracious and helpful Terrell, at the front desk, said she would talk us in.  It was after midnight by now - close to 12:30AM.  We were doing really well until we hit some unexpected construction and got turned around. "No problem." said Terrell.  She told us to stop at the first hotel that we came to and hand the phone to that night reception person.  We stopped at the Hampton Inn where LaTanya did not bat an eye.  She explained the way to go, entered directions on my brand new iPhone, and offered me water and fruit.        We arrived at our hotel a few minutes later and were greeted with a great big smile and some cool water.     We stayed at the Fairfield Inn for the next 5 days and found every single person who worked there to be friendly and the epitome of good service.  In fact, we received better service  there than we have at a few more expensive places.       Because of our positive experience we give LaTanya and Terrell 5 stars.MoreShow less</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded February 4, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 4, 2015</t>
-  </si>
-  <si>
     <t>We flew to Houston late at night on January 13 for a funeral.  Although we had directions from George Bush Airport we got very lost.Upon calling the Fairfield Inn and explaining our dilemma, the very gracious and helpful Terrell, at the front desk, said she would talk us in.  It was after midnight by now - close to 12:30AM.  We were doing really well until we hit some unexpected construction and got turned around. "No problem." said Terrell.  She told us to stop at the first hotel that we came to and hand the phone to that night reception person.  We stopped at the Hampton Inn where LaTanya did not bat an eye.  She explained the way to go, entered directions on my brand new iPhone, and offered me water and fruit.        We arrived at our hotel a few minutes later and were greeted with a great big smile and some cool water.     We stayed at the Fairfield Inn for the next 5 days and found every single person who worked there to be friendly and the epitome of good service.  In fact, we received better service  there than we have at a few more expensive places.       Because of our positive experience we give LaTanya and Terrell 5 stars.More</t>
   </si>
   <si>
@@ -985,6 +1525,39 @@
     <t>I have stayed in the hotel on multiple weekly stays with absolutely consistent great experiences.  The staff, from the front desk to the breakfast staff to housekeeping go out of their way to be pleasant and accommodating.  The rooms are always clean and well made up and the coffee is always stocked.  (The coffee may sound like a small thing, but I want my cup immediately when I get up.  And I can't tell you how many hotels I have stayed in, including premium hotels, that manage to mess this up at least once out of a 3 or 4 night stay).</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r237917847-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237917847</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel twice, the latest was on october for 4 nights, and a i had a great experience at my visit to houston!! The hotel is well located near banks, supermarkets and place to eat!! The staff were an amazing people always able to help and answer all questions that we had, they also recieved several packages from online shopping at any additional cost and we didn't have any inconvenience. The breakfast was ok, and had plenty of choices. If you are looking for a hotel well located at a middle range price and nice people to support your needs, i highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r237500558-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237500558</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Another good stay with Marriot</t>
+  </si>
+  <si>
+    <t>Chose this hotel because of the proximity to my business meeting and turned out to be a great choice. Room was decent size, staff very freindly and accomodating. Breakfast was an added plus. I plan to stay here for all future Houston business trips!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r233191964-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1618,45 @@
     <t>This hotel was wondeful! The room was very spacious with a nice size bathroom. It had a nice size computer desk. Karen from London was very nice and got us checked in. She was extremely helpful!The breakfast here was very good. They had eggs, biscuits and gravy, make your own waffles, cereals and yogurt. The guy who checked us out was also very nice. I would definitely recommend this hotel to others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r192620828-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192620828</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Great choice!</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was top notch!   It is a good location with easy access to major shopping, restaurants, and major roads.  The staff was wonderful, welcoming and friendly, always willing to help with any concerns.  Every staff member, from the maids to the gardener, to the front desk, smiled, greeted us, and made us feel welcome and right at home - every day!  The rooms were immaculate, large, and very comfortable, the same as the common areas.  The breakfast had anything you could want and was well stocked.   Right now there is construction nearby, but even though our room faced the construction, it was peaceful and quiet inside.  This is one of the warmest, welcoming hotels we have ever stayed in.   It has our highest recommendations!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Our experience at this hotel was top notch!   It is a good location with easy access to major shopping, restaurants, and major roads.  The staff was wonderful, welcoming and friendly, always willing to help with any concerns.  Every staff member, from the maids to the gardener, to the front desk, smiled, greeted us, and made us feel welcome and right at home - every day!  The rooms were immaculate, large, and very comfortable, the same as the common areas.  The breakfast had anything you could want and was well stocked.   Right now there is construction nearby, but even though our room faced the construction, it was peaceful and quiet inside.  This is one of the warmest, welcoming hotels we have ever stayed in.   It has our highest recommendations!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r192400253-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192400253</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Home from home comfort and hospitality</t>
+  </si>
+  <si>
+    <t>I travel to Houston frequently, but had not stayed here before.  Advance booking price was excellent, and I decided to give it a try.Hotel is easy to find on the Beltway 8 frontage road just off the Sam Houston tollway (just before the Westheimer Road junction, on the right hand side of the road).  Parking is free and plentiful.I experienced a very friendly check-in service by Karen (from London).  She seemed to delight in selecting a suitable, quiet room for me, and I ended up in 322.  This was spacious, comfortable and super-clean.  A comfortable bed, super shower, and complimentary breakfast completed an excellent stay.My check out was equally friendly.  Highly recommended hotel.  If my review has assisted, pleased give me a 'Helpful' vote - thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to Houston frequently, but had not stayed here before.  Advance booking price was excellent, and I decided to give it a try.Hotel is easy to find on the Beltway 8 frontage road just off the Sam Houston tollway (just before the Westheimer Road junction, on the right hand side of the road).  Parking is free and plentiful.I experienced a very friendly check-in service by Karen (from London).  She seemed to delight in selecting a suitable, quiet room for me, and I ended up in 322.  This was spacious, comfortable and super-clean.  A comfortable bed, super shower, and complimentary breakfast completed an excellent stay.My check out was equally friendly.  Highly recommended hotel.  If my review has assisted, pleased give me a 'Helpful' vote - thank you.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r192142497-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1058,9 +1670,6 @@
   </si>
   <si>
     <t>Very clean and large room. Morning breakfast was good and they start quite early... So it's convenient for an early flight. There is no restaurant on site but there are many within a few minutes drive and a few within walking distance. Overall good stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2014</t>
   </si>
   <si>
     <t>Very clean and large room. Morning breakfast was good and they start quite early... So it's convenient for an early flight. There is no restaurant on site but there are many within a few minutes drive and a few within walking distance. Overall good stay.More</t>
@@ -1146,6 +1755,63 @@
     <t>Stayed here over the Thanksgiving holiday and was impressed with the level of service provided.  The rooms were very clean, beds very comfortable and rooms a nice size.  Breakfast was nice and staff went above and beyond to make sure you were comfortable.  Wish there were more wall electrical outlets in the room.  Most outlets were on the lamps and the desk.Great location; near various types of restaurants, retail shops and businesses.  Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r183401755-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183401755</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>As good as it gets</t>
+  </si>
+  <si>
+    <t>For this class of hotel, this is as good as it gets y'all.  Let me explain:
+The rooms:
+It was renovated just this year and it shows.  Everything is freshly painted/wallpapered.  The furniture is new.  The decor is very modern and trendy.  The bed was very comfortable.  I could not hear my neighbors (but my A/C was on the whole time).  And get this, the internet WORKED PERFECTLY.  I was even able to stream Netflix at 9:00PM.  That's almost unheard of in a business-class hotel in the middle of the week, full of people there on business.  Wow.  
+My only complaint is there wasn't much storage.  The closet was tiny and there are only two dresser drawers.  I also wasn't a fan of the Proctor and Gamble toiletries.  
+Rest of the hotel:
+The fitness room was small but perfectly functional.  There are two treadmills and one elliptical.  Both are equipped with cardio theaters.  There's also weights and a weight bench.  No bike though.  The towels were always well stocked and they also had something else I'd never seen before in a hotel fitness room: complimentary ear buds.
+The breakfast was better than most.  I liked the vat of hot oatmeal.  It was much better than the instant packets usually available.  They had raisins, walnuts, and brown sugar out for it too.  The lady that oversees the breakfast was also really nice.  I was late one morning and she made sure...For this class of hotel, this is as good as it gets y'all.  Let me explain:The rooms:It was renovated just this year and it shows.  Everything is freshly painted/wallpapered.  The furniture is new.  The decor is very modern and trendy.  The bed was very comfortable.  I could not hear my neighbors (but my A/C was on the whole time).  And get this, the internet WORKED PERFECTLY.  I was even able to stream Netflix at 9:00PM.  That's almost unheard of in a business-class hotel in the middle of the week, full of people there on business.  Wow.  My only complaint is there wasn't much storage.  The closet was tiny and there are only two dresser drawers.  I also wasn't a fan of the Proctor and Gamble toiletries.  Rest of the hotel:The fitness room was small but perfectly functional.  There are two treadmills and one elliptical.  Both are equipped with cardio theaters.  There's also weights and a weight bench.  No bike though.  The towels were always well stocked and they also had something else I'd never seen before in a hotel fitness room: complimentary ear buds.The breakfast was better than most.  I liked the vat of hot oatmeal.  It was much better than the instant packets usually available.  They had raisins, walnuts, and brown sugar out for it too.  The lady that oversees the breakfast was also really nice.  I was late one morning and she made sure I had everything I wanted before she started cleaning up.The staff:Karen and Nick at the front desk were great upon check in.  Karen made extra sure that my billing information was correct and that my Marriott rewards were applied.  They couldn't find the credit card authorization from my office, but they gave me my keys anyway.  Then Nick called my room a few minutes later and said everything was squared away.The location:Right off of Westheimer, so plenty of food options.  Easy to get in and out of the hotel parking lot (you can use the Beltway service road or side streets).  I will most likely stay here again next time I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>For this class of hotel, this is as good as it gets y'all.  Let me explain:
+The rooms:
+It was renovated just this year and it shows.  Everything is freshly painted/wallpapered.  The furniture is new.  The decor is very modern and trendy.  The bed was very comfortable.  I could not hear my neighbors (but my A/C was on the whole time).  And get this, the internet WORKED PERFECTLY.  I was even able to stream Netflix at 9:00PM.  That's almost unheard of in a business-class hotel in the middle of the week, full of people there on business.  Wow.  
+My only complaint is there wasn't much storage.  The closet was tiny and there are only two dresser drawers.  I also wasn't a fan of the Proctor and Gamble toiletries.  
+Rest of the hotel:
+The fitness room was small but perfectly functional.  There are two treadmills and one elliptical.  Both are equipped with cardio theaters.  There's also weights and a weight bench.  No bike though.  The towels were always well stocked and they also had something else I'd never seen before in a hotel fitness room: complimentary ear buds.
+The breakfast was better than most.  I liked the vat of hot oatmeal.  It was much better than the instant packets usually available.  They had raisins, walnuts, and brown sugar out for it too.  The lady that oversees the breakfast was also really nice.  I was late one morning and she made sure...For this class of hotel, this is as good as it gets y'all.  Let me explain:The rooms:It was renovated just this year and it shows.  Everything is freshly painted/wallpapered.  The furniture is new.  The decor is very modern and trendy.  The bed was very comfortable.  I could not hear my neighbors (but my A/C was on the whole time).  And get this, the internet WORKED PERFECTLY.  I was even able to stream Netflix at 9:00PM.  That's almost unheard of in a business-class hotel in the middle of the week, full of people there on business.  Wow.  My only complaint is there wasn't much storage.  The closet was tiny and there are only two dresser drawers.  I also wasn't a fan of the Proctor and Gamble toiletries.  Rest of the hotel:The fitness room was small but perfectly functional.  There are two treadmills and one elliptical.  Both are equipped with cardio theaters.  There's also weights and a weight bench.  No bike though.  The towels were always well stocked and they also had something else I'd never seen before in a hotel fitness room: complimentary ear buds.The breakfast was better than most.  I liked the vat of hot oatmeal.  It was much better than the instant packets usually available.  They had raisins, walnuts, and brown sugar out for it too.  The lady that oversees the breakfast was also really nice.  I was late one morning and she made sure I had everything I wanted before she started cleaning up.The staff:Karen and Nick at the front desk were great upon check in.  Karen made extra sure that my billing information was correct and that my Marriott rewards were applied.  They couldn't find the credit card authorization from my office, but they gave me my keys anyway.  Then Nick called my room a few minutes later and said everything was squared away.The location:Right off of Westheimer, so plenty of food options.  Easy to get in and out of the hotel parking lot (you can use the Beltway service road or side streets).  I will most likely stay here again next time I'm in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r181754511-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181754511</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel, nice room and excellent bed. Very good bathroom, everything clean and it's place.It has pool, gym, free parking area and a good lobby.Friendly employes. Near downtown, easy to go everywhere, but very feel places to eat nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel, nice room and excellent bed. Very good bathroom, everything clean and it's place.It has pool, gym, free parking area and a good lobby.Friendly employes. Near downtown, easy to go everywhere, but very feel places to eat nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r180109533-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1161,9 +1827,6 @@
     <t>I stayed here while on a business trip. While it isn't a Courtyard Marriott, it was a good hotel. The staff were really nice and the hotel was up to date. They offered complimentary breakfast that had eggs, a meat, waffles, other bakery item, and fruit. The hotel also offered complimentary bottles of water at the front desk which is a change from having them in the room for sale. The walls and floors are thin would be my biggest complaint.MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded October 14, 2013</t>
   </si>
   <si>
@@ -1216,6 +1879,48 @@
   </si>
   <si>
     <t>My husband and I have stayed at this hotel many times since it is located near a family member's home. It is your basic hotel, but has recently been renovated to give it a fresh new look. There is a breakfast which looks enticing, but we usually go out elsewhere with our family so I can't give my opinion. The updated rooms added some lamps which each have two electrical outlets for ease in charging phones and computers. The bathroon is spacious with a large mirror, nice tub, and new tile floor. The bed is comfortable with an array of pillows to choose from. There is an indoor pool for those who want to avoid the sun. The rate is very moderate especially for senior citizens. I will continue to stay at this hotel on our family visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r174215524-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174215524</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>I am so thrilled with the new renovations and that the place is still looking so great!First time my husband has joined me since the renovations, and he was thrilled with them.Breakfast was wonderful.  Staff so friendly and helpful.  A bottle of water when I checked in!Pool is still looking great, too.Love the market and laundry.No need to stay at another hotel with all the new amenities.My go to place whenever I'm in Houston, no matter what area of the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Westchase, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>I am so thrilled with the new renovations and that the place is still looking so great!First time my husband has joined me since the renovations, and he was thrilled with them.Breakfast was wonderful.  Staff so friendly and helpful.  A bottle of water when I checked in!Pool is still looking great, too.Love the market and laundry.No need to stay at another hotel with all the new amenities.My go to place whenever I'm in Houston, no matter what area of the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r173574422-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173574422</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Friendly efficient check in, with a follow up call to make sure everything was ok with the room. Some nice touches at reception too : bottled water, cookies and fruit. Good spacious room, size able bathroom. All the amenities worked, AC seemed a little loud but it did its job. No noise from the road, adjoining rooms or corridor but I could hear someone in the room above moving around from time to time. Comfortable bed. Water pressure in the shower could have been better but was still adequate.Wifi was free and worked well, fitness centre was a little small but the pool was reasonable size, very clean and well stocked with towels.Good selection for breakfast and pleasant area to eat it in. Everywhere was kept well cleaned. All in all a good stay. I'd definitely use it again when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly efficient check in, with a follow up call to make sure everything was ok with the room. Some nice touches at reception too : bottled water, cookies and fruit. Good spacious room, size able bathroom. All the amenities worked, AC seemed a little loud but it did its job. No noise from the road, adjoining rooms or corridor but I could hear someone in the room above moving around from time to time. Comfortable bed. Water pressure in the shower could have been better but was still adequate.Wifi was free and worked well, fitness centre was a little small but the pool was reasonable size, very clean and well stocked with towels.Good selection for breakfast and pleasant area to eat it in. Everywhere was kept well cleaned. All in all a good stay. I'd definitely use it again when in Houston.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r166895977-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -1279,6 +1984,55 @@
 While located beside the freeway, it is surrounded by hotels, corporate offices and trees, which actually gives it a very peaceful feeling....First impression: Check-in was quick and friendly. Karen at the front desk was friendly, courteous, and informative. Renovations at the hotel appear to be complete so the entire hotel looks and feels new. The room: Nicely renovated and clean. Comfortable beds and pillows. Lotsa power hook-ups beside the bed or at the desk, which is nice cos I could use and charge my laptop in bed easily. Bathroom was equipped with the usual amenities, and shower flow was great.Breakfast was a complimentary full hot breakfast. On the day I had it, they were serving sausages, flat eggs and boiled eggs but I overheard the lady working there say that they change the hot items daily. Other items include fruits, bread, yoghurt, juice, and cereal selections, as well as a waffle maker. Lady working in the bedroom room was very pleasant, kept things nicely replenished and had ready smiles.Overall, this property successfully hits all the "key performance indicators" (KPI) that I look for in a hotel stay. I would have rated them 5-stars but there is one potential area of improvement that prevented me from doing so: the bedroom had a strong smell of either an air freshener or cleaning spray - this may be overpowering for some people, and I would recommend the hotel review this.While located beside the freeway, it is surrounded by hotels, corporate offices and trees, which actually gives it a very peaceful feeling. I also found the location provided easy access to all the things I wanted to do in Houston, and would stay here when I return to the city.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r159629120-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159629120</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Terrific service and good amenities.</t>
+  </si>
+  <si>
+    <t>Just spent two nights at this hotel on business.
+Check-in was quick and efficient.  The front desk agent was very friendly and made me feel welcome.  The room was a good size, twin bed room, and it was neat and clean.  I don't know how old this hotel is, but everything in my room looked fairly new.
+The bed was very comfortable to sleep in and I thought the walls were well insulated; the room was quiet.  The bathroom was clean and roomy.  My only complaint, and it is a minor one, is that the TV listings in the room did not match the channel numbers on the TV.  That was a minor inconvenience and I never ever brought it to management's attention.
+The free breakfast in the morning was a good, varied buffet.  The hotel served a hot breakfast, usually eggs and some kind of protein, and plenty of bagels, breads, cereals, juices and fruit, and of course, coffee.  The staff serving breakfast was very friendly and welcoming and that seemed to be a common theme of everyone I met who worked at this hotel.
+The location is far from Bush International airport.  It took me about 45 minutes, in traffic, to get there, and the quickest way is through the toll road, Sam Houston parkway (8.)  According to my GPS, Hobby is closer, but I'm not sure if it's more direct.
+The location is good.  A short drive...Just spent two nights at this hotel on business.Check-in was quick and efficient.  The front desk agent was very friendly and made me feel welcome.  The room was a good size, twin bed room, and it was neat and clean.  I don't know how old this hotel is, but everything in my room looked fairly new.The bed was very comfortable to sleep in and I thought the walls were well insulated; the room was quiet.  The bathroom was clean and roomy.  My only complaint, and it is a minor one, is that the TV listings in the room did not match the channel numbers on the TV.  That was a minor inconvenience and I never ever brought it to management's attention.The free breakfast in the morning was a good, varied buffet.  The hotel served a hot breakfast, usually eggs and some kind of protein, and plenty of bagels, breads, cereals, juices and fruit, and of course, coffee.  The staff serving breakfast was very friendly and welcoming and that seemed to be a common theme of everyone I met who worked at this hotel.The location is far from Bush International airport.  It took me about 45 minutes, in traffic, to get there, and the quickest way is through the toll road, Sam Houston parkway (8.)  According to my GPS, Hobby is closer, but I'm not sure if it's more direct.The location is good.  A short drive to many restaurants and shopping.I'll be back in Houston at the end of the month and will most likely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just spent two nights at this hotel on business.
+Check-in was quick and efficient.  The front desk agent was very friendly and made me feel welcome.  The room was a good size, twin bed room, and it was neat and clean.  I don't know how old this hotel is, but everything in my room looked fairly new.
+The bed was very comfortable to sleep in and I thought the walls were well insulated; the room was quiet.  The bathroom was clean and roomy.  My only complaint, and it is a minor one, is that the TV listings in the room did not match the channel numbers on the TV.  That was a minor inconvenience and I never ever brought it to management's attention.
+The free breakfast in the morning was a good, varied buffet.  The hotel served a hot breakfast, usually eggs and some kind of protein, and plenty of bagels, breads, cereals, juices and fruit, and of course, coffee.  The staff serving breakfast was very friendly and welcoming and that seemed to be a common theme of everyone I met who worked at this hotel.
+The location is far from Bush International airport.  It took me about 45 minutes, in traffic, to get there, and the quickest way is through the toll road, Sam Houston parkway (8.)  According to my GPS, Hobby is closer, but I'm not sure if it's more direct.
+The location is good.  A short drive...Just spent two nights at this hotel on business.Check-in was quick and efficient.  The front desk agent was very friendly and made me feel welcome.  The room was a good size, twin bed room, and it was neat and clean.  I don't know how old this hotel is, but everything in my room looked fairly new.The bed was very comfortable to sleep in and I thought the walls were well insulated; the room was quiet.  The bathroom was clean and roomy.  My only complaint, and it is a minor one, is that the TV listings in the room did not match the channel numbers on the TV.  That was a minor inconvenience and I never ever brought it to management's attention.The free breakfast in the morning was a good, varied buffet.  The hotel served a hot breakfast, usually eggs and some kind of protein, and plenty of bagels, breads, cereals, juices and fruit, and of course, coffee.  The staff serving breakfast was very friendly and welcoming and that seemed to be a common theme of everyone I met who worked at this hotel.The location is far from Bush International airport.  It took me about 45 minutes, in traffic, to get there, and the quickest way is through the toll road, Sam Houston parkway (8.)  According to my GPS, Hobby is closer, but I'm not sure if it's more direct.The location is good.  A short drive to many restaurants and shopping.I'll be back in Houston at the end of the month and will most likely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r153374256-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153374256</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Renovations...A true test</t>
+  </si>
+  <si>
+    <t>Many times a guest can be inconvenienced when a hotel is still operating during reconstruction. After all, how would guests ever have new rooms and facilities if hotels didn't renovate? I had a fantastic experience in this property enjoying a beautiful brand new room that had "state of the art" furnishings and beyond what I expect from a hotel room. Yes, walking through areas of renovation is not what a seasoned traveling person may be used to, but it was never a bother. The guests were removed from the vigors of work in progress, the staff was as warm and helpful as you can ever imagine. You will be greeted by Raven, Megan and Janeil as well as Karen who are quite genuine when asking if there is anything they can do. In the evening you'll find Tarrel...and this gal know what hospitality is...a personality that makes you feel thrilled to be in a hotel that is being renovated. You will be greeted at breakfast by Charlene who cares for her breakfast station like no other. She is so friendly and helpful...wanting to know how your prior day was and wishing the best for the present day. The breakfast was bountiful, and kept perfectly clean by Charlene's care and concerns. The General managers, Michelle and Melanie set the standard here...warm and friendly people. I traveled here from New York for business, a long trip to say the least, yet felt...Many times a guest can be inconvenienced when a hotel is still operating during reconstruction. After all, how would guests ever have new rooms and facilities if hotels didn't renovate? I had a fantastic experience in this property enjoying a beautiful brand new room that had "state of the art" furnishings and beyond what I expect from a hotel room. Yes, walking through areas of renovation is not what a seasoned traveling person may be used to, but it was never a bother. The guests were removed from the vigors of work in progress, the staff was as warm and helpful as you can ever imagine. You will be greeted by Raven, Megan and Janeil as well as Karen who are quite genuine when asking if there is anything they can do. In the evening you'll find Tarrel...and this gal know what hospitality is...a personality that makes you feel thrilled to be in a hotel that is being renovated. You will be greeted at breakfast by Charlene who cares for her breakfast station like no other. She is so friendly and helpful...wanting to know how your prior day was and wishing the best for the present day. The breakfast was bountiful, and kept perfectly clean by Charlene's care and concerns. The General managers, Michelle and Melanie set the standard here...warm and friendly people. I traveled here from New York for business, a long trip to say the least, yet felt quite at home the moment I arrived. The reason why I write this is because if a guest can have this wonderful experience during a tough renovation, then what happens in just a few weeks when the hotel is all done? What happens is that you have one beautiful facility, rooms that are well thought of with regards to furnishings and space, and you get that great staff as mentioned above. 5 stars for me, you'll agree when YOU get there.MitchMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Many times a guest can be inconvenienced when a hotel is still operating during reconstruction. After all, how would guests ever have new rooms and facilities if hotels didn't renovate? I had a fantastic experience in this property enjoying a beautiful brand new room that had "state of the art" furnishings and beyond what I expect from a hotel room. Yes, walking through areas of renovation is not what a seasoned traveling person may be used to, but it was never a bother. The guests were removed from the vigors of work in progress, the staff was as warm and helpful as you can ever imagine. You will be greeted by Raven, Megan and Janeil as well as Karen who are quite genuine when asking if there is anything they can do. In the evening you'll find Tarrel...and this gal know what hospitality is...a personality that makes you feel thrilled to be in a hotel that is being renovated. You will be greeted at breakfast by Charlene who cares for her breakfast station like no other. She is so friendly and helpful...wanting to know how your prior day was and wishing the best for the present day. The breakfast was bountiful, and kept perfectly clean by Charlene's care and concerns. The General managers, Michelle and Melanie set the standard here...warm and friendly people. I traveled here from New York for business, a long trip to say the least, yet felt...Many times a guest can be inconvenienced when a hotel is still operating during reconstruction. After all, how would guests ever have new rooms and facilities if hotels didn't renovate? I had a fantastic experience in this property enjoying a beautiful brand new room that had "state of the art" furnishings and beyond what I expect from a hotel room. Yes, walking through areas of renovation is not what a seasoned traveling person may be used to, but it was never a bother. The guests were removed from the vigors of work in progress, the staff was as warm and helpful as you can ever imagine. You will be greeted by Raven, Megan and Janeil as well as Karen who are quite genuine when asking if there is anything they can do. In the evening you'll find Tarrel...and this gal know what hospitality is...a personality that makes you feel thrilled to be in a hotel that is being renovated. You will be greeted at breakfast by Charlene who cares for her breakfast station like no other. She is so friendly and helpful...wanting to know how your prior day was and wishing the best for the present day. The breakfast was bountiful, and kept perfectly clean by Charlene's care and concerns. The General managers, Michelle and Melanie set the standard here...warm and friendly people. I traveled here from New York for business, a long trip to say the least, yet felt quite at home the moment I arrived. The reason why I write this is because if a guest can have this wonderful experience during a tough renovation, then what happens in just a few weeks when the hotel is all done? What happens is that you have one beautiful facility, rooms that are well thought of with regards to furnishings and space, and you get that great staff as mentioned above. 5 stars for me, you'll agree when YOU get there.MitchMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r147629147-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +2090,42 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r131040150-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131040150</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Excellent in every way.</t>
+  </si>
+  <si>
+    <t>Short-notice trip to Houston, Basically chose the lowest-priced location. Low price was nice, but this hotel was excellent. And certainly better than I would've expected for the price. On Memorial Day weekend, even.There isn't a gym, but there is a pool. Pool area was well-kept.Really not much to write about other than that everything worked as it should. Checking in/out, A/C, breakfast, internet, printer, etc. Nothing spectacular, but having everything work is quite the feat in itself.I'd rather have dependable than fancy any day.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r123549189-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123549189</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Pretty Standard Fairfield</t>
+  </si>
+  <si>
+    <t>This is a standard run-of-the-mill fairfield in.  The rooms are pretty average and they come with the standard "musty" smell that seems to exist in just about every "Inn" property I've ever stayed.    The staff are very nice and the breakfast is slightly better than the standard fare at similar properties.   There is not much within "easy" walking distance to the hotel -- although the location at the intersection of Beltway 8 and Westheimer is pretty decent for access to the local businesses.  I'd stay here again if the full-service Marriott is sold-out.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r123470944-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1351,9 +2141,6 @@
     <t>Clean, reasonably priced in a convenient location. Breakfast has a variety items.  Plenty of dining nearby. Close to Galleria and other shopping.  A great value for this location.</t>
   </si>
   <si>
-    <t>January 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r121799972-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +2178,39 @@
   </si>
   <si>
     <t>We spent one night at this very affordable location ($99 a night). At check in, as a Marriott elite member, we requested a room upgrade. An (turned out to be new) employee at the reception desk denied our request for unavaibility, and we expressed some sort of disappointment. As we walked into our room, the manager on duty called up and apologized, then we were offered an upgrade. Both the male employee and the female manager were quite courteous and very professional. Our cousins from Paris, France just loved the hotel's complimentary breakfast! The hotel is 5-minute away from "Little Saigon" and 15-minute away from The Galleria? Getting in and out the freeway was very easy and convenient. And not just breakfast is free but parking spaces too! All was well and we enjoyed our stay. We will definitely come back to this hotel on our next trip to Houston,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r117241678-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117241678</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Just a place to stay, nothing out of the usual.</t>
+  </si>
+  <si>
+    <t>basic room and service.  Nothing specialMy keys kept deactivating?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r114762310-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114762310</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Safe</t>
+  </si>
+  <si>
+    <t>This a great, comfortable and affordable choice for the West Houston area near the tollway.  The staff were competent and friendly, including the cleaning staff.  Our room was all that was needed and the wifi was just fine.  We expected a lot less but got a clean, well-stocked room with great "quietness".  The REAL PLUS was the wonderful breakfast; great variety and choices with BEST ATTENDANT I have ever had.  She was helpful and made sure everything was available.  She even helped me with my waffles (yummy) and we were glad to see all the healthy choices!  We are coming back here on our next Houston visit.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r78222264-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -1481,6 +2301,24 @@
   </si>
   <si>
     <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107908-r28602563-Fairfield_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>28602563</t>
+  </si>
+  <si>
+    <t>04/23/2009</t>
+  </si>
+  <si>
+    <t>Convenient, easy access, functional and clean</t>
+  </si>
+  <si>
+    <t>Very well situated to access the west side of Houston.  A few miles west of the Galleria area and a lot more value for money than hotels there.  Adjacent to the San Houston Parkway but far enough away to not be affected by traffic noise.Park right outside, check- in, go to your room, everything works, everything is clean  If that's what you want stay here, if you want to be pampered stay elsewhere and pay more.Only criticism I had was I wished the doors opened automatically.  It was a struggle with two large suitcases.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
   </si>
 </sst>
 </file>
@@ -2023,11 +2861,11 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -2036,14 +2874,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2059,58 +2893,58 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2126,58 +2960,56 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -2193,43 +3025,41 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -2238,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2260,56 +3090,56 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -2325,58 +3155,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
-      </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2392,52 +3222,58 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
         <v>108</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>109</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -2453,41 +3289,45 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2538,16 +3378,18 @@
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2557,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
         <v>125</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>126</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2579,52 +3421,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>130</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>131</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
         <v>132</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" t="s">
-        <v>134</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
         <v>135</v>
-      </c>
-      <c r="X11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -2640,40 +3488,38 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
         <v>138</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>139</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>140</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>141</v>
       </c>
-      <c r="L12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>143</v>
-      </c>
       <c r="O12" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
@@ -2685,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
         <v>144</v>
-      </c>
-      <c r="X12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -2707,52 +3553,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
         <v>147</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>148</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>149</v>
       </c>
-      <c r="K13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s">
-        <v>151</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -2768,41 +3620,41 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
         <v>155</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" t="s">
-        <v>159</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2811,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -2833,34 +3685,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>164</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>160</v>
-      </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2872,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -2894,34 +3746,34 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
         <v>172</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>173</v>
-      </c>
-      <c r="J16" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16" t="s">
-        <v>176</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2933,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2955,34 +3807,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
         <v>180</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" t="s">
-        <v>183</v>
-      </c>
-      <c r="L17" t="s">
-        <v>184</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2994,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -3016,41 +3868,41 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>189</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>194</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3059,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
@@ -3081,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3090,45 +3942,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -3144,58 +3994,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
         <v>205</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" t="s">
-        <v>209</v>
-      </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -3211,34 +4055,34 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
         <v>213</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>214</v>
       </c>
-      <c r="J21" t="s">
-        <v>215</v>
-      </c>
-      <c r="K21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" t="s">
-        <v>217</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>218</v>
-      </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3249,8 +4093,12 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
       <c r="Y21" t="s">
         <v>217</v>
       </c>
@@ -3268,41 +4116,47 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>219</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>220</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>221</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>222</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>223</v>
       </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>218</v>
-      </c>
       <c r="O22" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -3353,32 +4207,28 @@
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
         <v>233</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>234</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -3394,52 +4244,56 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>236</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>237</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>238</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>239</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>240</v>
       </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>241</v>
-      </c>
       <c r="O24" t="s">
-        <v>134</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
@@ -3455,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3464,25 +4318,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3537,20 +4391,20 @@
         <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3605,7 +4459,7 @@
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -3619,10 +4473,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
@@ -3638,7 +4496,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3647,49 +4505,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -3705,7 +4557,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3714,39 +4566,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
@@ -3762,7 +4624,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3771,32 +4633,32 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3805,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="X30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
@@ -3827,7 +4689,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3836,25 +4698,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3866,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X31" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
@@ -3888,7 +4750,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3897,25 +4759,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J32" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3931,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="X32" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Y32" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33">
@@ -3953,7 +4815,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3962,35 +4824,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3998,7 +4862,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
@@ -4014,7 +4878,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4023,39 +4887,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
@@ -4071,7 +4939,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4080,43 +4948,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
@@ -4132,7 +4996,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4141,45 +5005,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>337</v>
+      </c>
+      <c r="X36" t="s">
+        <v>338</v>
+      </c>
       <c r="Y36" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
@@ -4195,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4204,25 +5072,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4233,14 +5101,10 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>338</v>
-      </c>
-      <c r="X37" t="s">
-        <v>339</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
@@ -4256,7 +5120,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4265,25 +5129,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
         <v>345</v>
       </c>
-      <c r="M38" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s">
-        <v>346</v>
-      </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4295,13 +5159,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="X38" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="Y38" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
@@ -4317,7 +5181,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4326,53 +5190,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>354</v>
-      </c>
-      <c r="X39" t="s">
-        <v>355</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
@@ -4388,7 +5238,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4397,53 +5247,35 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s">
-        <v>362</v>
-      </c>
-      <c r="O40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
         <v>363</v>
-      </c>
-      <c r="X40" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="41">
@@ -4459,44 +5291,38 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" t="s">
         <v>366</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>367</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>368</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>369</v>
       </c>
-      <c r="L41" t="s">
-        <v>370</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>371</v>
-      </c>
       <c r="O41" t="s">
-        <v>134</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>4</v>
       </c>
@@ -4508,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
+        <v>370</v>
+      </c>
+      <c r="X41" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y41" t="s">
         <v>372</v>
-      </c>
-      <c r="X41" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="42">
@@ -4530,62 +5356,52 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>373</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>374</v>
+      </c>
+      <c r="J42" t="s">
         <v>375</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>376</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>377</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>378</v>
       </c>
-      <c r="L42" t="s">
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y42" t="s">
         <v>379</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>380</v>
-      </c>
-      <c r="O42" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
-      <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>372</v>
-      </c>
-      <c r="X42" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="43">
@@ -4601,62 +5417,52 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
         <v>382</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>383</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>384</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>385</v>
       </c>
-      <c r="L43" t="s">
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
         <v>386</v>
       </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>380</v>
-      </c>
-      <c r="O43" t="s">
-        <v>73</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
-      <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>387</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>388</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="44">
@@ -4672,56 +5478,50 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>390</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>391</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>392</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>393</v>
       </c>
-      <c r="L44" t="s">
-        <v>394</v>
-      </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O44" t="s">
-        <v>73</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
       <c r="Y44" t="s">
         <v>394</v>
       </c>
@@ -4739,47 +5539,41 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>396</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>397</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>398</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>399</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
         <v>400</v>
       </c>
-      <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>401</v>
-      </c>
       <c r="O45" t="s">
-        <v>134</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>4</v>
       </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4787,10 +5581,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
@@ -4818,32 +5616,26 @@
         <v>403</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
         <v>4</v>
       </c>
@@ -4854,10 +5646,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>408</v>
+      </c>
+      <c r="X46" t="s">
+        <v>409</v>
+      </c>
       <c r="Y46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47">
@@ -4873,7 +5669,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4882,49 +5678,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O47" t="s">
-        <v>134</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48">
@@ -4940,7 +5726,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4949,38 +5735,34 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K48" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O48" t="s">
-        <v>134</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
         <v>5</v>
       </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4988,10 +5770,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>423</v>
+      </c>
+      <c r="X48" t="s">
+        <v>424</v>
+      </c>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49">
@@ -5007,7 +5793,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5016,38 +5802,32 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="J49" t="s">
+        <v>428</v>
+      </c>
+      <c r="K49" t="s">
+        <v>429</v>
+      </c>
+      <c r="L49" t="s">
+        <v>430</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>422</v>
       </c>
-      <c r="K49" t="s">
-        <v>423</v>
-      </c>
-      <c r="L49" t="s">
-        <v>424</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>425</v>
-      </c>
       <c r="O49" t="s">
-        <v>134</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
         <v>5</v>
       </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5055,10 +5835,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>431</v>
+      </c>
+      <c r="X49" t="s">
+        <v>432</v>
+      </c>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50">
@@ -5074,7 +5858,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5083,37 +5867,33 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="J50" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K50" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L50" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="O50" t="s">
-        <v>134</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
         <v>4</v>
       </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -5122,10 +5902,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" t="s">
+        <v>441</v>
+      </c>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
@@ -5141,58 +5925,48 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>431</v>
+      </c>
+      <c r="X51" t="s">
         <v>432</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
-        <v>433</v>
-      </c>
-      <c r="J51" t="s">
-        <v>434</v>
-      </c>
-      <c r="K51" t="s">
-        <v>435</v>
-      </c>
-      <c r="L51" t="s">
-        <v>436</v>
-      </c>
-      <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>437</v>
-      </c>
-      <c r="O51" t="s">
-        <v>73</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
@@ -5208,7 +5982,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5217,35 +5991,29 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>439</v>
       </c>
-      <c r="J52" t="s">
-        <v>440</v>
-      </c>
-      <c r="K52" t="s">
-        <v>441</v>
-      </c>
-      <c r="L52" t="s">
-        <v>442</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>443</v>
-      </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
         <v>5</v>
       </c>
@@ -5256,10 +6024,14 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
       <c r="Y52" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
@@ -5275,7 +6047,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5284,49 +6056,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="J53" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="K53" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="L53" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>134</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>4</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>462</v>
+      </c>
+      <c r="X53" t="s">
+        <v>463</v>
+      </c>
       <c r="Y53" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
@@ -5342,7 +6108,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5351,49 +6117,49 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="O54" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>4</v>
       </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>462</v>
+      </c>
+      <c r="X54" t="s">
+        <v>463</v>
+      </c>
       <c r="Y54" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
@@ -5409,7 +6175,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5418,35 +6184,29 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>134</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
         <v>5</v>
       </c>
@@ -5457,10 +6217,2615 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>477</v>
+      </c>
+      <c r="X55" t="s">
+        <v>478</v>
+      </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>480</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>481</v>
+      </c>
+      <c r="J56" t="s">
+        <v>482</v>
+      </c>
+      <c r="K56" t="s">
+        <v>483</v>
+      </c>
+      <c r="L56" t="s">
+        <v>484</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>470</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>477</v>
+      </c>
+      <c r="X56" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>486</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>487</v>
+      </c>
+      <c r="J57" t="s">
+        <v>488</v>
+      </c>
+      <c r="K57" t="s">
+        <v>489</v>
+      </c>
+      <c r="L57" t="s">
+        <v>490</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>491</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" t="s">
+        <v>494</v>
+      </c>
+      <c r="K58" t="s">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s">
+        <v>496</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>491</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>507</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>508</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>509</v>
+      </c>
+      <c r="J61" t="s">
+        <v>510</v>
+      </c>
+      <c r="K61" t="s">
+        <v>511</v>
+      </c>
+      <c r="L61" t="s">
+        <v>512</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>513</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>514</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>515</v>
+      </c>
+      <c r="J62" t="s">
+        <v>516</v>
+      </c>
+      <c r="K62" t="s">
+        <v>517</v>
+      </c>
+      <c r="L62" t="s">
+        <v>518</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>519</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>520</v>
+      </c>
+      <c r="J63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K63" t="s">
+        <v>522</v>
+      </c>
+      <c r="L63" t="s">
+        <v>523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>524</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>525</v>
+      </c>
+      <c r="X63" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>528</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>529</v>
+      </c>
+      <c r="J64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>533</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>525</v>
+      </c>
+      <c r="X64" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>533</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>525</v>
+      </c>
+      <c r="X65" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>533</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>525</v>
+      </c>
+      <c r="X66" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>548</v>
+      </c>
+      <c r="J67" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" t="s">
+        <v>550</v>
+      </c>
+      <c r="L67" t="s">
+        <v>551</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>552</v>
+      </c>
+      <c r="O67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>553</v>
+      </c>
+      <c r="X67" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>557</v>
+      </c>
+      <c r="J68" t="s">
+        <v>558</v>
+      </c>
+      <c r="K68" t="s">
+        <v>559</v>
+      </c>
+      <c r="L68" t="s">
+        <v>560</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>561</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>562</v>
+      </c>
+      <c r="X68" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>566</v>
+      </c>
+      <c r="J69" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" t="s">
+        <v>568</v>
+      </c>
+      <c r="L69" t="s">
+        <v>569</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>561</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>570</v>
+      </c>
+      <c r="X69" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>574</v>
+      </c>
+      <c r="J70" t="s">
+        <v>575</v>
+      </c>
+      <c r="K70" t="s">
+        <v>576</v>
+      </c>
+      <c r="L70" t="s">
+        <v>577</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>578</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>570</v>
+      </c>
+      <c r="X70" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>580</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>581</v>
+      </c>
+      <c r="J71" t="s">
+        <v>582</v>
+      </c>
+      <c r="K71" t="s">
+        <v>583</v>
+      </c>
+      <c r="L71" t="s">
+        <v>584</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>578</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>585</v>
+      </c>
+      <c r="X71" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>588</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>589</v>
+      </c>
+      <c r="J72" t="s">
+        <v>590</v>
+      </c>
+      <c r="K72" t="s">
+        <v>591</v>
+      </c>
+      <c r="L72" t="s">
+        <v>592</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>593</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>585</v>
+      </c>
+      <c r="X72" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>595</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>596</v>
+      </c>
+      <c r="J73" t="s">
+        <v>597</v>
+      </c>
+      <c r="K73" t="s">
+        <v>598</v>
+      </c>
+      <c r="L73" t="s">
+        <v>599</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>593</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>600</v>
+      </c>
+      <c r="X73" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>603</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>604</v>
+      </c>
+      <c r="J74" t="s">
+        <v>605</v>
+      </c>
+      <c r="K74" t="s">
+        <v>606</v>
+      </c>
+      <c r="L74" t="s">
+        <v>607</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>608</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>609</v>
+      </c>
+      <c r="X74" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>612</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>613</v>
+      </c>
+      <c r="J75" t="s">
+        <v>614</v>
+      </c>
+      <c r="K75" t="s">
+        <v>264</v>
+      </c>
+      <c r="L75" t="s">
+        <v>615</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>608</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>609</v>
+      </c>
+      <c r="X75" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>617</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>618</v>
+      </c>
+      <c r="J76" t="s">
+        <v>619</v>
+      </c>
+      <c r="K76" t="s">
+        <v>620</v>
+      </c>
+      <c r="L76" t="s">
+        <v>621</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>622</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>623</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>624</v>
+      </c>
+      <c r="J77" t="s">
+        <v>625</v>
+      </c>
+      <c r="K77" t="s">
+        <v>626</v>
+      </c>
+      <c r="L77" t="s">
+        <v>627</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>628</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>629</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>630</v>
+      </c>
+      <c r="J78" t="s">
+        <v>625</v>
+      </c>
+      <c r="K78" t="s">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s">
+        <v>632</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>628</v>
+      </c>
+      <c r="O78" t="s">
+        <v>97</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>634</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>635</v>
+      </c>
+      <c r="J79" t="s">
+        <v>636</v>
+      </c>
+      <c r="K79" t="s">
+        <v>637</v>
+      </c>
+      <c r="L79" t="s">
+        <v>638</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>628</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" t="s">
+        <v>642</v>
+      </c>
+      <c r="K80" t="s">
+        <v>643</v>
+      </c>
+      <c r="L80" t="s">
+        <v>644</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>645</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>649</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>653</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>654</v>
+      </c>
+      <c r="J82" t="s">
+        <v>655</v>
+      </c>
+      <c r="K82" t="s">
+        <v>656</v>
+      </c>
+      <c r="L82" t="s">
+        <v>657</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>658</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>660</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>661</v>
+      </c>
+      <c r="J83" t="s">
+        <v>662</v>
+      </c>
+      <c r="K83" t="s">
+        <v>663</v>
+      </c>
+      <c r="L83" t="s">
+        <v>664</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>665</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>666</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>667</v>
+      </c>
+      <c r="J84" t="s">
+        <v>668</v>
+      </c>
+      <c r="K84" t="s">
+        <v>669</v>
+      </c>
+      <c r="L84" t="s">
+        <v>670</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>671</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>672</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>673</v>
+      </c>
+      <c r="J85" t="s">
+        <v>674</v>
+      </c>
+      <c r="K85" t="s">
+        <v>675</v>
+      </c>
+      <c r="L85" t="s">
+        <v>676</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>677</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>678</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>679</v>
+      </c>
+      <c r="J86" t="s">
+        <v>680</v>
+      </c>
+      <c r="K86" t="s">
+        <v>681</v>
+      </c>
+      <c r="L86" t="s">
+        <v>682</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>677</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>683</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>684</v>
+      </c>
+      <c r="J87" t="s">
+        <v>685</v>
+      </c>
+      <c r="K87" t="s">
+        <v>686</v>
+      </c>
+      <c r="L87" t="s">
+        <v>687</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>688</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>689</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>690</v>
+      </c>
+      <c r="J88" t="s">
+        <v>691</v>
+      </c>
+      <c r="K88" t="s">
+        <v>692</v>
+      </c>
+      <c r="L88" t="s">
+        <v>693</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>694</v>
+      </c>
+      <c r="O88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>696</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>697</v>
+      </c>
+      <c r="J89" t="s">
+        <v>698</v>
+      </c>
+      <c r="K89" t="s">
+        <v>699</v>
+      </c>
+      <c r="L89" t="s">
+        <v>700</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>701</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>702</v>
+      </c>
+      <c r="J90" t="s">
+        <v>703</v>
+      </c>
+      <c r="K90" t="s">
+        <v>704</v>
+      </c>
+      <c r="L90" t="s">
+        <v>705</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>706</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>707</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>708</v>
+      </c>
+      <c r="J91" t="s">
+        <v>709</v>
+      </c>
+      <c r="K91" t="s">
+        <v>710</v>
+      </c>
+      <c r="L91" t="s">
+        <v>711</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>712</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>714</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>715</v>
+      </c>
+      <c r="J92" t="s">
+        <v>716</v>
+      </c>
+      <c r="K92" t="s">
+        <v>717</v>
+      </c>
+      <c r="L92" t="s">
+        <v>718</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>719</v>
+      </c>
+      <c r="O92" t="s">
+        <v>132</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>721</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>722</v>
+      </c>
+      <c r="J93" t="s">
+        <v>723</v>
+      </c>
+      <c r="K93" t="s">
+        <v>724</v>
+      </c>
+      <c r="L93" t="s">
+        <v>725</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>726</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>727</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>728</v>
+      </c>
+      <c r="J94" t="s">
+        <v>729</v>
+      </c>
+      <c r="K94" t="s">
+        <v>730</v>
+      </c>
+      <c r="L94" t="s">
+        <v>731</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>732</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
